--- a/consumption_tables/Total energy consumption._              Billion Btu/Natural gas total consumption (including suppl..._                                      Billion Btu.xlsx
+++ b/consumption_tables/Total energy consumption._              Billion Btu/Natural gas total consumption (including suppl..._                                      Billion Btu.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="212">
   <si>
     <t>StateCode</t>
   </si>
@@ -56,151 +56,601 @@
     <t>AL</t>
   </si>
   <si>
+    <t>15.157657481863252%</t>
+  </si>
+  <si>
+    <t>36.46972939825373%</t>
+  </si>
+  <si>
+    <t>21.31207191639048%</t>
+  </si>
+  <si>
     <t>AR</t>
   </si>
   <si>
+    <t>27.39349117610978%</t>
+  </si>
+  <si>
+    <t>28.113826406771373%</t>
+  </si>
+  <si>
+    <t>0.7203352306615933%</t>
+  </si>
+  <si>
     <t>AZ</t>
   </si>
   <si>
+    <t>13.929009245817761%</t>
+  </si>
+  <si>
+    <t>25.38685972207078%</t>
+  </si>
+  <si>
+    <t>11.45785047625302%</t>
+  </si>
+  <si>
     <t>CA</t>
   </si>
   <si>
+    <t>28.227784139857953%</t>
+  </si>
+  <si>
+    <t>31.026048872249014%</t>
+  </si>
+  <si>
+    <t>2.798264732391061%</t>
+  </si>
+  <si>
     <t>CO</t>
   </si>
   <si>
+    <t>26.557274426741213%</t>
+  </si>
+  <si>
+    <t>33.56559500671181%</t>
+  </si>
+  <si>
+    <t>7.008320579970597%</t>
+  </si>
+  <si>
     <t>CT</t>
   </si>
   <si>
+    <t>14.181846580370566%</t>
+  </si>
+  <si>
+    <t>34.71664524575507%</t>
+  </si>
+  <si>
+    <t>20.5347986653845%</t>
+  </si>
+  <si>
     <t>DE</t>
   </si>
   <si>
+    <t>15.715773320179766%</t>
+  </si>
+  <si>
+    <t>38.78495764617017%</t>
+  </si>
+  <si>
+    <t>23.069184325990406%</t>
+  </si>
+  <si>
     <t>FL</t>
   </si>
   <si>
+    <t>10.423885939627397%</t>
+  </si>
+  <si>
+    <t>32.21139190818765%</t>
+  </si>
+  <si>
+    <t>21.787505968560254%</t>
+  </si>
+  <si>
     <t>GA</t>
   </si>
   <si>
+    <t>14.325367246385392%</t>
+  </si>
+  <si>
+    <t>24.993195885544974%</t>
+  </si>
+  <si>
+    <t>10.667828639159582%</t>
+  </si>
+  <si>
     <t>HI</t>
   </si>
   <si>
+    <t>0.9280663055618643%</t>
+  </si>
+  <si>
+    <t>1.01587009326601%</t>
+  </si>
+  <si>
+    <t>0.08780378770414576%</t>
+  </si>
+  <si>
     <t>IA</t>
   </si>
   <si>
+    <t>23.30085180748749%</t>
+  </si>
+  <si>
+    <t>22.396173401123896%</t>
+  </si>
+  <si>
+    <t>-0.904678406363594%</t>
+  </si>
+  <si>
     <t>ID</t>
   </si>
   <si>
+    <t>11.540302012264005%</t>
+  </si>
+  <si>
+    <t>20.57448752104935%</t>
+  </si>
+  <si>
+    <t>9.034185508785344%</t>
+  </si>
+  <si>
     <t>IL</t>
   </si>
   <si>
+    <t>26.812093796030634%</t>
+  </si>
+  <si>
+    <t>25.9261072249248%</t>
+  </si>
+  <si>
+    <t>-0.8859865711058355%</t>
+  </si>
+  <si>
     <t>IN</t>
   </si>
   <si>
+    <t>18.4188216451005%</t>
+  </si>
+  <si>
+    <t>25.928560863725586%</t>
+  </si>
+  <si>
+    <t>7.509739218625086%</t>
+  </si>
+  <si>
     <t>KS</t>
   </si>
   <si>
+    <t>33.06703048886263%</t>
+  </si>
+  <si>
+    <t>24.021665738372537%</t>
+  </si>
+  <si>
+    <t>-9.04536475049009%</t>
+  </si>
+  <si>
     <t>KY</t>
   </si>
   <si>
+    <t>13.105455758567627%</t>
+  </si>
+  <si>
+    <t>15.92308441264903%</t>
+  </si>
+  <si>
+    <t>2.8176286540814033%</t>
+  </si>
+  <si>
     <t>LA</t>
   </si>
   <si>
+    <t>42.886433986270156%</t>
+  </si>
+  <si>
+    <t>37.321086346749794%</t>
+  </si>
+  <si>
+    <t>-5.565347639520361%</t>
+  </si>
+  <si>
     <t>MA</t>
   </si>
   <si>
+    <t>19.469848071069816%</t>
+  </si>
+  <si>
+    <t>31.661151710997405%</t>
+  </si>
+  <si>
+    <t>12.19130363992759%</t>
+  </si>
+  <si>
     <t>MD</t>
   </si>
   <si>
+    <t>14.231339349250216%</t>
+  </si>
+  <si>
+    <t>16.211397776008848%</t>
+  </si>
+  <si>
+    <t>1.9800584267586316%</t>
+  </si>
+  <si>
     <t>ME</t>
   </si>
   <si>
+    <t>0.999842544481184%</t>
+  </si>
+  <si>
+    <t>13.362044526179037%</t>
+  </si>
+  <si>
+    <t>12.362201981697853%</t>
+  </si>
+  <si>
     <t>MI</t>
   </si>
   <si>
+    <t>31.273992234805455%</t>
+  </si>
+  <si>
+    <t>31.517467264688072%</t>
+  </si>
+  <si>
+    <t>0.24347502988261738%</t>
+  </si>
+  <si>
     <t>MN</t>
   </si>
   <si>
+    <t>20.829770437697267%</t>
+  </si>
+  <si>
+    <t>25.343786530585266%</t>
+  </si>
+  <si>
+    <t>4.514016092887999%</t>
+  </si>
+  <si>
     <t>MO</t>
   </si>
   <si>
+    <t>16.26621499024708%</t>
+  </si>
+  <si>
+    <t>14.831504959600606%</t>
+  </si>
+  <si>
+    <t>-1.4347100306464728%</t>
+  </si>
+  <si>
     <t>MS</t>
   </si>
   <si>
+    <t>25.453663760640072%</t>
+  </si>
+  <si>
+    <t>47.14899928488819%</t>
+  </si>
+  <si>
+    <t>21.69533552424812%</t>
+  </si>
+  <si>
     <t>MT</t>
   </si>
   <si>
+    <t>12.768773503744773%</t>
+  </si>
+  <si>
+    <t>19.062983798034917%</t>
+  </si>
+  <si>
+    <t>6.294210294290144%</t>
+  </si>
+  <si>
     <t>NC</t>
   </si>
   <si>
+    <t>8.111469958266385%</t>
+  </si>
+  <si>
+    <t>20.446769232232274%</t>
+  </si>
+  <si>
+    <t>12.335299273965889%</t>
+  </si>
+  <si>
     <t>ND</t>
   </si>
   <si>
+    <t>10.729211333047468%</t>
+  </si>
+  <si>
+    <t>17.07115146906576%</t>
+  </si>
+  <si>
+    <t>6.341940136018293%</t>
+  </si>
+  <si>
     <t>NE</t>
   </si>
   <si>
+    <t>20.775333347288218%</t>
+  </si>
+  <si>
+    <t>19.969031356630538%</t>
+  </si>
+  <si>
+    <t>-0.8063019906576798%</t>
+  </si>
+  <si>
     <t>NH</t>
   </si>
   <si>
+    <t>5.411751509599746%</t>
+  </si>
+  <si>
+    <t>23.18635449225789%</t>
+  </si>
+  <si>
+    <t>17.774602982658145%</t>
+  </si>
+  <si>
     <t>NJ</t>
   </si>
   <si>
+    <t>20.395405033909224%</t>
+  </si>
+  <si>
+    <t>34.06618049153434%</t>
+  </si>
+  <si>
+    <t>13.670775457625115%</t>
+  </si>
+  <si>
     <t>NM</t>
   </si>
   <si>
+    <t>42.1618975284983%</t>
+  </si>
+  <si>
+    <t>38.49268085446528%</t>
+  </si>
+  <si>
+    <t>-3.6692166740330237%</t>
+  </si>
+  <si>
     <t>NV</t>
   </si>
   <si>
+    <t>16.594389147456063%</t>
+  </si>
+  <si>
+    <t>48.12220378176488%</t>
+  </si>
+  <si>
+    <t>31.527814634308818%</t>
+  </si>
+  <si>
     <t>NY</t>
   </si>
   <si>
+    <t>23.96914661141976%</t>
+  </si>
+  <si>
+    <t>37.51981488919772%</t>
+  </si>
+  <si>
+    <t>13.550668277777959%</t>
+  </si>
+  <si>
     <t>OH</t>
   </si>
   <si>
+    <t>20.595152347077438%</t>
+  </si>
+  <si>
+    <t>27.65403129291308%</t>
+  </si>
+  <si>
+    <t>7.058878945835641%</t>
+  </si>
+  <si>
     <t>OK</t>
   </si>
   <si>
+    <t>45.429675777111676%</t>
+  </si>
+  <si>
+    <t>43.68073482251804%</t>
+  </si>
+  <si>
+    <t>-1.7489409545936354%</t>
+  </si>
+  <si>
     <t>OR</t>
   </si>
   <si>
+    <t>11.421739610466613%</t>
+  </si>
+  <si>
+    <t>25.58639562157936%</t>
+  </si>
+  <si>
+    <t>14.164656011112747%</t>
+  </si>
+  <si>
     <t>PA</t>
   </si>
   <si>
+    <t>18.720589909688506%</t>
+  </si>
+  <si>
+    <t>34.64612716244745%</t>
+  </si>
+  <si>
+    <t>15.925537252758943%</t>
+  </si>
+  <si>
     <t>RI</t>
   </si>
   <si>
+    <t>19.017799215819018%</t>
+  </si>
+  <si>
+    <t>47.62609665354137%</t>
+  </si>
+  <si>
+    <t>28.60829743772235%</t>
+  </si>
+  <si>
     <t>SC</t>
   </si>
   <si>
+    <t>10.618380140004323%</t>
+  </si>
+  <si>
+    <t>17.120355137556352%</t>
+  </si>
+  <si>
+    <t>6.501974997552029%</t>
+  </si>
+  <si>
     <t>SD</t>
   </si>
   <si>
+    <t>11.713817666439654%</t>
+  </si>
+  <si>
+    <t>21.722612053747206%</t>
+  </si>
+  <si>
+    <t>10.008794387307551%</t>
+  </si>
+  <si>
     <t>TN</t>
   </si>
   <si>
+    <t>12.696410017175937%</t>
+  </si>
+  <si>
+    <t>14.87391646966115%</t>
+  </si>
+  <si>
+    <t>2.177506452485213%</t>
+  </si>
+  <si>
     <t>TX</t>
   </si>
   <si>
+    <t>37.629315100475466%</t>
+  </si>
+  <si>
+    <t>33.08694395789855%</t>
+  </si>
+  <si>
+    <t>-4.542371142576918%</t>
+  </si>
+  <si>
     <t>UT</t>
   </si>
   <si>
+    <t>23.684117217839834%</t>
+  </si>
+  <si>
+    <t>30.459241916459867%</t>
+  </si>
+  <si>
+    <t>6.775124698620033%</t>
+  </si>
+  <si>
     <t>VA</t>
   </si>
   <si>
+    <t>9.78182323725367%</t>
+  </si>
+  <si>
+    <t>22.185632548731913%</t>
+  </si>
+  <si>
+    <t>12.403809311478243%</t>
+  </si>
+  <si>
     <t>VT</t>
   </si>
   <si>
+    <t>5.29378190696642%</t>
+  </si>
+  <si>
+    <t>9.27878787878788%</t>
+  </si>
+  <si>
+    <t>3.985005971821459%</t>
+  </si>
+  <si>
     <t>WA</t>
   </si>
   <si>
+    <t>8.190253746585684%</t>
+  </si>
+  <si>
+    <t>16.495322355629717%</t>
+  </si>
+  <si>
+    <t>8.305068609044033%</t>
+  </si>
+  <si>
     <t>WI</t>
   </si>
   <si>
+    <t>20.9620095274208%</t>
+  </si>
+  <si>
+    <t>26.855408161082227%</t>
+  </si>
+  <si>
+    <t>5.893398633661427%</t>
+  </si>
+  <si>
     <t>WV</t>
   </si>
   <si>
+    <t>18.310892713682676%</t>
+  </si>
+  <si>
+    <t>24.87550247446494%</t>
+  </si>
+  <si>
+    <t>6.564609760782265%</t>
+  </si>
+  <si>
     <t>WY</t>
   </si>
   <si>
+    <t>25.365081828901616%</t>
+  </si>
+  <si>
+    <t>28.063425996639683%</t>
+  </si>
+  <si>
+    <t>2.6983441677380675%</t>
+  </si>
+  <si>
     <t>US</t>
+  </si>
+  <si>
+    <t>23.37405998399546%</t>
+  </si>
+  <si>
+    <t>29.044795456343987%</t>
+  </si>
+  <si>
+    <t>5.670735472348529%</t>
   </si>
 </sst>
 </file>
@@ -631,14 +1081,14 @@
       <c r="G2" s="2" t="n">
         <v>4854000</v>
       </c>
-      <c r="H2" s="2" t="n">
-        <v>0.1515765748186325</v>
-      </c>
-      <c r="I2" s="2" t="n">
-        <v>0.3646972939825373</v>
-      </c>
-      <c r="J2" s="2" t="n">
-        <v>0.2131207191639048</v>
+      <c r="H2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="K2" s="2" t="n">
         <v>0.06233506172839506</v>
@@ -655,7 +1105,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>234465</v>
@@ -672,14 +1122,14 @@
       <c r="G3" s="2" t="n">
         <v>2978000</v>
       </c>
-      <c r="H3" s="2" t="n">
-        <v>0.2739349117610978</v>
-      </c>
-      <c r="I3" s="2" t="n">
-        <v>0.2811382640677138</v>
-      </c>
-      <c r="J3" s="2" t="n">
-        <v>0.007203352306615951</v>
+      <c r="H3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="K3" s="2" t="n">
         <v>0.09947602885023335</v>
@@ -696,7 +1146,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>130781</v>
@@ -713,14 +1163,14 @@
       <c r="G4" s="2" t="n">
         <v>6818000</v>
       </c>
-      <c r="H4" s="2" t="n">
-        <v>0.1392900924581776</v>
-      </c>
-      <c r="I4" s="2" t="n">
-        <v>0.2538685972207078</v>
-      </c>
-      <c r="J4" s="2" t="n">
-        <v>0.1145785047625302</v>
+      <c r="H4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="K4" s="2" t="n">
         <v>0.03549972855591748</v>
@@ -737,7 +1187,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2101602</v>
@@ -754,14 +1204,14 @@
       <c r="G5" s="2" t="n">
         <v>38994000</v>
       </c>
-      <c r="H5" s="2" t="n">
-        <v>0.2822778413985795</v>
-      </c>
-      <c r="I5" s="2" t="n">
-        <v>0.3102604887224901</v>
-      </c>
-      <c r="J5" s="2" t="n">
-        <v>0.02798264732391059</v>
+      <c r="H5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>27</v>
       </c>
       <c r="K5" s="2" t="n">
         <v>0.07014692923898531</v>
@@ -778,7 +1228,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>247756</v>
@@ -795,14 +1245,14 @@
       <c r="G6" s="2" t="n">
         <v>5449000</v>
       </c>
-      <c r="H6" s="2" t="n">
-        <v>0.2655727442674121</v>
-      </c>
-      <c r="I6" s="2" t="n">
-        <v>0.3356559500671181</v>
-      </c>
-      <c r="J6" s="2" t="n">
-        <v>0.07008320579970595</v>
+      <c r="H6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="K6" s="2" t="n">
         <v>0.07489600967351874</v>
@@ -819,7 +1269,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>108957</v>
@@ -836,14 +1286,14 @@
       <c r="G7" s="2" t="n">
         <v>3585000</v>
       </c>
-      <c r="H7" s="2" t="n">
-        <v>0.1418184658037057</v>
-      </c>
-      <c r="I7" s="2" t="n">
-        <v>0.3471664524575507</v>
-      </c>
-      <c r="J7" s="2" t="n">
-        <v>0.205347986653845</v>
+      <c r="H7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>35</v>
       </c>
       <c r="K7" s="2" t="n">
         <v>0.03309750911300122</v>
@@ -860,7 +1310,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>40145</v>
@@ -877,14 +1327,14 @@
       <c r="G8" s="2" t="n">
         <v>944000</v>
       </c>
-      <c r="H8" s="2" t="n">
-        <v>0.1571577332017977</v>
-      </c>
-      <c r="I8" s="2" t="n">
-        <v>0.3878495764617017</v>
-      </c>
-      <c r="J8" s="2" t="n">
-        <v>0.2306918432599041</v>
+      <c r="H8" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>39</v>
       </c>
       <c r="K8" s="2" t="n">
         <v>0.05991791044776119</v>
@@ -901,7 +1351,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>341993</v>
@@ -918,14 +1368,14 @@
       <c r="G9" s="2" t="n">
         <v>20245000</v>
       </c>
-      <c r="H9" s="2" t="n">
-        <v>0.104238859396274</v>
-      </c>
-      <c r="I9" s="2" t="n">
-        <v>0.3221139190818765</v>
-      </c>
-      <c r="J9" s="2" t="n">
-        <v>0.2178750596856025</v>
+      <c r="H9" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="K9" s="2" t="n">
         <v>0.02624054323639991</v>
@@ -942,7 +1392,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>319413</v>
@@ -959,14 +1409,14 @@
       <c r="G10" s="2" t="n">
         <v>10199000</v>
       </c>
-      <c r="H10" s="2" t="n">
-        <v>0.1432536724638539</v>
-      </c>
-      <c r="I10" s="2" t="n">
-        <v>0.2499319588554497</v>
-      </c>
-      <c r="J10" s="2" t="n">
-        <v>0.1066782863915958</v>
+      <c r="H10" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>47</v>
       </c>
       <c r="K10" s="2" t="n">
         <v>0.04904237678489175</v>
@@ -983,7 +1433,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2983</v>
@@ -1000,14 +1450,14 @@
       <c r="G11" s="2" t="n">
         <v>1425000</v>
       </c>
-      <c r="H11" s="2" t="n">
-        <v>0.009280663055618643</v>
-      </c>
-      <c r="I11" s="2" t="n">
-        <v>0.0101587009326601</v>
-      </c>
-      <c r="J11" s="2" t="n">
-        <v>0.0008780378770414567</v>
+      <c r="H11" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>51</v>
       </c>
       <c r="K11" s="2" t="n">
         <v>0.002680143755615454</v>
@@ -1024,7 +1474,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>220396</v>
@@ -1041,14 +1491,14 @@
       <c r="G12" s="2" t="n">
         <v>3122000</v>
       </c>
-      <c r="H12" s="2" t="n">
-        <v>0.2330085180748749</v>
-      </c>
-      <c r="I12" s="2" t="n">
-        <v>0.2239617340112389</v>
-      </c>
-      <c r="J12" s="3" t="n">
-        <v>-0.00904678406363596</v>
+      <c r="H12" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>55</v>
       </c>
       <c r="K12" s="2" t="n">
         <v>0.07925062927004675</v>
@@ -1065,7 +1515,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>23</v>
+        <v>56</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>46786</v>
@@ -1082,14 +1532,14 @@
       <c r="G13" s="2" t="n">
         <v>1653000</v>
       </c>
-      <c r="H13" s="2" t="n">
-        <v>0.1154030201226401</v>
-      </c>
-      <c r="I13" s="2" t="n">
-        <v>0.2057448752104935</v>
-      </c>
-      <c r="J13" s="2" t="n">
-        <v>0.09034185508785345</v>
+      <c r="H13" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>59</v>
       </c>
       <c r="K13" s="2" t="n">
         <v>0.04623122529644269</v>
@@ -1106,7 +1556,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>960188</v>
@@ -1123,14 +1573,14 @@
       <c r="G14" s="2" t="n">
         <v>12839000</v>
       </c>
-      <c r="H14" s="2" t="n">
-        <v>0.2681209379603063</v>
-      </c>
-      <c r="I14" s="2" t="n">
-        <v>0.259261072249248</v>
-      </c>
-      <c r="J14" s="3" t="n">
-        <v>-0.008859865711058346</v>
+      <c r="H14" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>63</v>
       </c>
       <c r="K14" s="2" t="n">
         <v>0.08383724788265083</v>
@@ -1147,7 +1597,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>25</v>
+        <v>64</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>459072</v>
@@ -1164,14 +1614,14 @@
       <c r="G15" s="2" t="n">
         <v>6613000</v>
       </c>
-      <c r="H15" s="2" t="n">
-        <v>0.184188216451005</v>
-      </c>
-      <c r="I15" s="2" t="n">
-        <v>0.2592856086372559</v>
-      </c>
-      <c r="J15" s="2" t="n">
-        <v>0.07509739218625086</v>
+      <c r="H15" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>67</v>
       </c>
       <c r="K15" s="2" t="n">
         <v>0.08259661748830514</v>
@@ -1188,7 +1638,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>26</v>
+        <v>68</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>352645</v>
@@ -1205,14 +1655,14 @@
       <c r="G16" s="2" t="n">
         <v>2907000</v>
       </c>
-      <c r="H16" s="2" t="n">
-        <v>0.3306703048886263</v>
-      </c>
-      <c r="I16" s="2" t="n">
-        <v>0.2402166573837254</v>
-      </c>
-      <c r="J16" s="3" t="n">
-        <v>-0.09045364750490092</v>
+      <c r="H16" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>71</v>
       </c>
       <c r="K16" s="2" t="n">
         <v>0.1421382507053607</v>
@@ -1229,7 +1679,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>27</v>
+        <v>72</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>191707</v>
@@ -1246,14 +1696,14 @@
       <c r="G17" s="2" t="n">
         <v>4425000</v>
       </c>
-      <c r="H17" s="2" t="n">
-        <v>0.1310545575856763</v>
-      </c>
-      <c r="I17" s="2" t="n">
-        <v>0.1592308441264903</v>
-      </c>
-      <c r="J17" s="2" t="n">
-        <v>0.02817628654081403</v>
+      <c r="H17" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>75</v>
       </c>
       <c r="K17" s="2" t="n">
         <v>0.05189685977260422</v>
@@ -1270,7 +1720,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>28</v>
+        <v>76</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>1654692</v>
@@ -1287,14 +1737,14 @@
       <c r="G18" s="2" t="n">
         <v>4669000</v>
       </c>
-      <c r="H18" s="2" t="n">
-        <v>0.4288643398627016</v>
-      </c>
-      <c r="I18" s="2" t="n">
-        <v>0.3732108634674979</v>
-      </c>
-      <c r="J18" s="3" t="n">
-        <v>-0.05565347639520363</v>
+      <c r="H18" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>79</v>
       </c>
       <c r="K18" s="4" t="n">
         <v>0.3919213642823307</v>
@@ -1311,7 +1761,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>29</v>
+        <v>80</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>273910</v>
@@ -1328,14 +1778,14 @@
       <c r="G19" s="2" t="n">
         <v>6784000</v>
       </c>
-      <c r="H19" s="2" t="n">
-        <v>0.1946984807106981</v>
-      </c>
-      <c r="I19" s="2" t="n">
-        <v>0.316611517109974</v>
-      </c>
-      <c r="J19" s="2" t="n">
-        <v>0.1219130363992759</v>
+      <c r="H19" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>83</v>
       </c>
       <c r="K19" s="2" t="n">
         <v>0.04547733687531131</v>
@@ -1352,7 +1802,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>30</v>
+        <v>84</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>180591</v>
@@ -1369,14 +1819,14 @@
       <c r="G20" s="2" t="n">
         <v>5995000</v>
       </c>
-      <c r="H20" s="2" t="n">
-        <v>0.1423133934925022</v>
-      </c>
-      <c r="I20" s="2" t="n">
-        <v>0.1621139777600885</v>
-      </c>
-      <c r="J20" s="2" t="n">
-        <v>0.01980058426758632</v>
+      <c r="H20" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>87</v>
       </c>
       <c r="K20" s="2" t="n">
         <v>0.037623125</v>
@@ -1393,7 +1843,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>31</v>
+        <v>88</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>4572</v>
@@ -1410,14 +1860,14 @@
       <c r="G21" s="2" t="n">
         <v>1329000</v>
       </c>
-      <c r="H21" s="2" t="n">
-        <v>0.00999842544481184</v>
-      </c>
-      <c r="I21" s="2" t="n">
-        <v>0.1336204452617904</v>
-      </c>
-      <c r="J21" s="2" t="n">
-        <v>0.1236220198169785</v>
+      <c r="H21" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>91</v>
       </c>
       <c r="K21" s="2" t="n">
         <v>0.003711038961038961</v>
@@ -1434,7 +1884,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>32</v>
+        <v>92</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>898848</v>
@@ -1451,14 +1901,14 @@
       <c r="G22" s="2" t="n">
         <v>9918000</v>
       </c>
-      <c r="H22" s="2" t="n">
-        <v>0.3127399223480545</v>
-      </c>
-      <c r="I22" s="2" t="n">
-        <v>0.3151746726468807</v>
-      </c>
-      <c r="J22" s="2" t="n">
-        <v>0.002434750298826172</v>
+      <c r="H22" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>95</v>
       </c>
       <c r="K22" s="2" t="n">
         <v>0.09653614004940393</v>
@@ -1475,7 +1925,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>33</v>
+        <v>96</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>291828</v>
@@ -1492,14 +1942,14 @@
       <c r="G23" s="2" t="n">
         <v>5482000</v>
       </c>
-      <c r="H23" s="2" t="n">
-        <v>0.2082977043769727</v>
-      </c>
-      <c r="I23" s="2" t="n">
-        <v>0.2534378653058527</v>
-      </c>
-      <c r="J23" s="2" t="n">
-        <v>0.04514016092887999</v>
+      <c r="H23" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>99</v>
       </c>
       <c r="K23" s="2" t="n">
         <v>0.0664756264236902</v>
@@ -1516,7 +1966,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>34</v>
+        <v>100</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>241335</v>
@@ -1533,14 +1983,14 @@
       <c r="G24" s="2" t="n">
         <v>6076000</v>
       </c>
-      <c r="H24" s="2" t="n">
-        <v>0.1626621499024708</v>
-      </c>
-      <c r="I24" s="2" t="n">
-        <v>0.1483150495960061</v>
-      </c>
-      <c r="J24" s="3" t="n">
-        <v>-0.01434710030646474</v>
+      <c r="H24" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>103</v>
       </c>
       <c r="K24" s="2" t="n">
         <v>0.04705303178007409</v>
@@ -1557,7 +2007,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>35</v>
+        <v>104</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>261921</v>
@@ -1574,14 +2024,14 @@
       <c r="G25" s="2" t="n">
         <v>2989000</v>
       </c>
-      <c r="H25" s="2" t="n">
-        <v>0.2545366376064007</v>
-      </c>
-      <c r="I25" s="2" t="n">
-        <v>0.4714899928488819</v>
-      </c>
-      <c r="J25" s="2" t="n">
-        <v>0.2169533552424812</v>
+      <c r="H25" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>107</v>
       </c>
       <c r="K25" s="2" t="n">
         <v>0.101559131446297</v>
@@ -1598,7 +2048,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>36</v>
+        <v>108</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>44378</v>
@@ -1615,14 +2065,14 @@
       <c r="G26" s="2" t="n">
         <v>1032000</v>
       </c>
-      <c r="H26" s="2" t="n">
-        <v>0.1276877350374477</v>
-      </c>
-      <c r="I26" s="2" t="n">
-        <v>0.1906298379803492</v>
-      </c>
-      <c r="J26" s="2" t="n">
-        <v>0.06294210294290145</v>
+      <c r="H26" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>111</v>
       </c>
       <c r="K26" s="2" t="n">
         <v>0.0554725</v>
@@ -1639,7 +2089,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>37</v>
+        <v>112</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>166744</v>
@@ -1656,14 +2106,14 @@
       <c r="G27" s="2" t="n">
         <v>10035000</v>
       </c>
-      <c r="H27" s="2" t="n">
-        <v>0.08111469958266385</v>
-      </c>
-      <c r="I27" s="2" t="n">
-        <v>0.2044676923223227</v>
-      </c>
-      <c r="J27" s="2" t="n">
-        <v>0.1233529927396589</v>
+      <c r="H27" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>115</v>
       </c>
       <c r="K27" s="2" t="n">
         <v>0.02502160864345738</v>
@@ -1680,7 +2130,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>38</v>
+        <v>116</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>33529</v>
@@ -1697,14 +2147,14 @@
       <c r="G28" s="2" t="n">
         <v>757000</v>
       </c>
-      <c r="H28" s="2" t="n">
-        <v>0.1072921133304747</v>
-      </c>
-      <c r="I28" s="2" t="n">
-        <v>0.1707115146906576</v>
-      </c>
-      <c r="J28" s="2" t="n">
-        <v>0.06341940136018291</v>
+      <c r="H28" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="J28" s="2" t="s">
+        <v>119</v>
       </c>
       <c r="K28" s="2" t="n">
         <v>0.05255329153605016</v>
@@ -1721,7 +2171,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>39</v>
+        <v>120</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>109175</v>
@@ -1738,14 +2188,14 @@
       <c r="G29" s="2" t="n">
         <v>2884000</v>
       </c>
-      <c r="H29" s="2" t="n">
-        <v>0.2077533334728822</v>
-      </c>
-      <c r="I29" s="2" t="n">
-        <v>0.1996903135663054</v>
-      </c>
-      <c r="J29" s="3" t="n">
-        <v>-0.00806301990657679</v>
+      <c r="H29" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="J29" s="2" t="s">
+        <v>123</v>
       </c>
       <c r="K29" s="2" t="n">
         <v>0.08941441441441442</v>
@@ -1762,7 +2212,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>40</v>
+        <v>124</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>14474</v>
@@ -1779,14 +2229,14 @@
       <c r="G30" s="2" t="n">
         <v>1330000</v>
       </c>
-      <c r="H30" s="2" t="n">
-        <v>0.05411751509599746</v>
-      </c>
-      <c r="I30" s="2" t="n">
-        <v>0.2318635449225789</v>
-      </c>
-      <c r="J30" s="2" t="n">
-        <v>0.1777460298265814</v>
+      <c r="H30" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="J30" s="2" t="s">
+        <v>127</v>
       </c>
       <c r="K30" s="2" t="n">
         <v>0.01301618705035971</v>
@@ -1803,7 +2253,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>41</v>
+        <v>128</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>458050</v>
@@ -1820,14 +2270,14 @@
       <c r="G31" s="2" t="n">
         <v>8935000</v>
       </c>
-      <c r="H31" s="2" t="n">
-        <v>0.2039540503390923</v>
-      </c>
-      <c r="I31" s="2" t="n">
-        <v>0.3406618049153434</v>
-      </c>
-      <c r="J31" s="2" t="n">
-        <v>0.1367077545762511</v>
+      <c r="H31" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="J31" s="2" t="s">
+        <v>131</v>
       </c>
       <c r="K31" s="2" t="n">
         <v>0.0590042509339173</v>
@@ -1844,7 +2294,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>42</v>
+        <v>132</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>251470</v>
@@ -1861,14 +2311,14 @@
       <c r="G32" s="2" t="n">
         <v>2080000</v>
       </c>
-      <c r="H32" s="2" t="n">
-        <v>0.421618975284983</v>
-      </c>
-      <c r="I32" s="2" t="n">
-        <v>0.3849268085446528</v>
-      </c>
-      <c r="J32" s="3" t="n">
-        <v>-0.03669216674033027</v>
+      <c r="H32" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="I32" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="J32" s="2" t="s">
+        <v>135</v>
       </c>
       <c r="K32" s="2" t="n">
         <v>0.1652233902759527</v>
@@ -1885,7 +2335,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>43</v>
+        <v>136</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>66888</v>
@@ -1902,14 +2352,14 @@
       <c r="G33" s="2" t="n">
         <v>1894000</v>
       </c>
-      <c r="H33" s="2" t="n">
-        <v>0.1659438914745606</v>
-      </c>
-      <c r="I33" s="4" t="n">
-        <v>0.4812220378176488</v>
-      </c>
-      <c r="J33" s="4" t="n">
-        <v>0.3152781463430882</v>
+      <c r="H33" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="I33" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="J33" s="4" t="s">
+        <v>139</v>
       </c>
       <c r="K33" s="2" t="n">
         <v>0.04228065739570164</v>
@@ -1926,7 +2376,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>44</v>
+        <v>140</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>895361</v>
@@ -1943,14 +2393,14 @@
       <c r="G34" s="2" t="n">
         <v>19747000</v>
       </c>
-      <c r="H34" s="2" t="n">
-        <v>0.2396914661141976</v>
-      </c>
-      <c r="I34" s="2" t="n">
-        <v>0.3751981488919772</v>
-      </c>
-      <c r="J34" s="2" t="n">
-        <v>0.1355066827777796</v>
+      <c r="H34" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="I34" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="J34" s="2" t="s">
+        <v>143</v>
       </c>
       <c r="K34" s="2" t="n">
         <v>0.04968431274624049</v>
@@ -1967,7 +2417,7 @@
         <v>33</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>45</v>
+        <v>144</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>776588</v>
@@ -1984,14 +2434,14 @@
       <c r="G35" s="2" t="n">
         <v>11605000</v>
       </c>
-      <c r="H35" s="2" t="n">
-        <v>0.2059515234707744</v>
-      </c>
-      <c r="I35" s="2" t="n">
-        <v>0.2765403129291308</v>
-      </c>
-      <c r="J35" s="2" t="n">
-        <v>0.07058878945835642</v>
+      <c r="H35" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="I35" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="J35" s="2" t="s">
+        <v>147</v>
       </c>
       <c r="K35" s="2" t="n">
         <v>0.07148269513991164</v>
@@ -2008,7 +2458,7 @@
         <v>34</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>46</v>
+        <v>148</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>628222</v>
@@ -2025,14 +2475,14 @@
       <c r="G36" s="2" t="n">
         <v>3907000</v>
       </c>
-      <c r="H36" s="4" t="n">
-        <v>0.4542967577711168</v>
-      </c>
-      <c r="I36" s="2" t="n">
-        <v>0.4368073482251804</v>
-      </c>
-      <c r="J36" s="3" t="n">
-        <v>-0.01748940954593636</v>
+      <c r="H36" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="I36" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="J36" s="2" t="s">
+        <v>151</v>
       </c>
       <c r="K36" s="2" t="n">
         <v>0.1994988885360432</v>
@@ -2049,7 +2499,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>47</v>
+        <v>152</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>111727</v>
@@ -2066,14 +2516,14 @@
       <c r="G37" s="2" t="n">
         <v>4025000</v>
       </c>
-      <c r="H37" s="2" t="n">
-        <v>0.1142173961046661</v>
-      </c>
-      <c r="I37" s="2" t="n">
-        <v>0.2558639562157936</v>
-      </c>
-      <c r="J37" s="2" t="n">
-        <v>0.1416465601111275</v>
+      <c r="H37" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="I37" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="J37" s="2" t="s">
+        <v>155</v>
       </c>
       <c r="K37" s="2" t="n">
         <v>0.03906538461538461</v>
@@ -2090,7 +2540,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>48</v>
+        <v>156</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>680696</v>
@@ -2107,14 +2557,14 @@
       <c r="G38" s="2" t="n">
         <v>12792000</v>
       </c>
-      <c r="H38" s="2" t="n">
-        <v>0.1872058990968851</v>
-      </c>
-      <c r="I38" s="2" t="n">
-        <v>0.3464612716244745</v>
-      </c>
-      <c r="J38" s="2" t="n">
-        <v>0.1592553725275894</v>
+      <c r="H38" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="I38" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="J38" s="2" t="s">
+        <v>159</v>
       </c>
       <c r="K38" s="2" t="n">
         <v>0.05718692766529446</v>
@@ -2131,7 +2581,7 @@
         <v>37</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>49</v>
+        <v>160</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>40452</v>
@@ -2148,14 +2598,14 @@
       <c r="G39" s="2" t="n">
         <v>1056000</v>
       </c>
-      <c r="H39" s="2" t="n">
-        <v>0.1901779921581902</v>
-      </c>
-      <c r="I39" s="2" t="n">
-        <v>0.4762609665354137</v>
-      </c>
-      <c r="J39" s="2" t="n">
-        <v>0.2860829743772235</v>
+      <c r="H39" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="I39" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="J39" s="2" t="s">
+        <v>163</v>
       </c>
       <c r="K39" s="2" t="n">
         <v>0.04021073558648111</v>
@@ -2172,7 +2622,7 @@
         <v>38</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>50</v>
+        <v>164</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>134106</v>
@@ -2189,14 +2639,14 @@
       <c r="G40" s="2" t="n">
         <v>4895000</v>
       </c>
-      <c r="H40" s="2" t="n">
-        <v>0.1061838014000432</v>
-      </c>
-      <c r="I40" s="2" t="n">
-        <v>0.1712035513755635</v>
-      </c>
-      <c r="J40" s="2" t="n">
-        <v>0.06501974997552031</v>
+      <c r="H40" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="I40" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="J40" s="2" t="s">
+        <v>167</v>
       </c>
       <c r="K40" s="2" t="n">
         <v>0.03830505569837189</v>
@@ -2213,7 +2663,7 @@
         <v>39</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>51</v>
+        <v>168</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>25456</v>
@@ -2230,14 +2680,14 @@
       <c r="G41" s="2" t="n">
         <v>858000</v>
       </c>
-      <c r="H41" s="2" t="n">
-        <v>0.1171381766643965</v>
-      </c>
-      <c r="I41" s="2" t="n">
-        <v>0.2172261205374721</v>
-      </c>
-      <c r="J41" s="2" t="n">
-        <v>0.1000879438730755</v>
+      <c r="H41" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="I41" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="J41" s="2" t="s">
+        <v>171</v>
       </c>
       <c r="K41" s="2" t="n">
         <v>0.0365222381635581</v>
@@ -2254,7 +2704,7 @@
         <v>40</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>52</v>
+        <v>172</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>227525</v>
@@ -2271,14 +2721,14 @@
       <c r="G42" s="2" t="n">
         <v>6595000</v>
       </c>
-      <c r="H42" s="2" t="n">
-        <v>0.1269641001717594</v>
-      </c>
-      <c r="I42" s="2" t="n">
-        <v>0.1487391646966115</v>
-      </c>
-      <c r="J42" s="2" t="n">
-        <v>0.02177506452485212</v>
+      <c r="H42" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="I42" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="J42" s="2" t="s">
+        <v>175</v>
       </c>
       <c r="K42" s="2" t="n">
         <v>0.04649060073559461</v>
@@ -2295,7 +2745,7 @@
         <v>41</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>53</v>
+        <v>176</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3877833</v>
@@ -2312,14 +2762,14 @@
       <c r="G43" s="2" t="n">
         <v>27430000</v>
       </c>
-      <c r="H43" s="2" t="n">
-        <v>0.3762931510047547</v>
-      </c>
-      <c r="I43" s="2" t="n">
-        <v>0.3308694395789855</v>
-      </c>
-      <c r="J43" s="3" t="n">
-        <v>-0.04542371142576923</v>
+      <c r="H43" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="I43" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="J43" s="2" t="s">
+        <v>179</v>
       </c>
       <c r="K43" s="2" t="n">
         <v>0.2273455472826406</v>
@@ -2336,7 +2786,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>54</v>
+        <v>180</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>126913</v>
@@ -2353,14 +2803,14 @@
       <c r="G44" s="2" t="n">
         <v>2991000</v>
       </c>
-      <c r="H44" s="2" t="n">
-        <v>0.2368411721783983</v>
-      </c>
-      <c r="I44" s="2" t="n">
-        <v>0.3045924191645987</v>
-      </c>
-      <c r="J44" s="2" t="n">
-        <v>0.06775124698620033</v>
+      <c r="H44" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="I44" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="J44" s="2" t="s">
+        <v>183</v>
       </c>
       <c r="K44" s="2" t="n">
         <v>0.07331773541305604</v>
@@ -2377,7 +2827,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>55</v>
+        <v>184</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>192084</v>
@@ -2394,14 +2844,14 @@
       <c r="G45" s="2" t="n">
         <v>8368000</v>
       </c>
-      <c r="H45" s="2" t="n">
-        <v>0.0978182323725367</v>
-      </c>
-      <c r="I45" s="2" t="n">
-        <v>0.2218563254873191</v>
-      </c>
-      <c r="J45" s="2" t="n">
-        <v>0.1240380931147824</v>
+      <c r="H45" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="I45" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="J45" s="2" t="s">
+        <v>187</v>
       </c>
       <c r="K45" s="2" t="n">
         <v>0.0308965739102461</v>
@@ -2418,7 +2868,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>56</v>
+        <v>188</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>6678</v>
@@ -2435,14 +2885,14 @@
       <c r="G46" s="2" t="n">
         <v>626000</v>
       </c>
-      <c r="H46" s="2" t="n">
-        <v>0.0529378190696642</v>
-      </c>
-      <c r="I46" s="2" t="n">
-        <v>0.09278787878787879</v>
-      </c>
-      <c r="J46" s="2" t="n">
-        <v>0.03985005971821459</v>
+      <c r="H46" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="I46" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="J46" s="2" t="s">
+        <v>191</v>
       </c>
       <c r="K46" s="2" t="n">
         <v>0.01181946902654867</v>
@@ -2459,7 +2909,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>57</v>
+        <v>192</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>167616</v>
@@ -2476,14 +2926,14 @@
       <c r="G47" s="2" t="n">
         <v>7160000</v>
       </c>
-      <c r="H47" s="2" t="n">
-        <v>0.08190253746585684</v>
-      </c>
-      <c r="I47" s="2" t="n">
-        <v>0.1649532235562972</v>
-      </c>
-      <c r="J47" s="2" t="n">
-        <v>0.08305068609044035</v>
+      <c r="H47" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="I47" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="J47" s="2" t="s">
+        <v>195</v>
       </c>
       <c r="K47" s="2" t="n">
         <v>0.0341864164797063</v>
@@ -2500,7 +2950,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>58</v>
+        <v>196</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>311237</v>
@@ -2517,14 +2967,14 @@
       <c r="G48" s="2" t="n">
         <v>5768000</v>
       </c>
-      <c r="H48" s="2" t="n">
-        <v>0.209620095274208</v>
-      </c>
-      <c r="I48" s="2" t="n">
-        <v>0.2685540816108223</v>
-      </c>
-      <c r="J48" s="2" t="n">
-        <v>0.05893398633661429</v>
+      <c r="H48" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="I48" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="J48" s="2" t="s">
+        <v>199</v>
       </c>
       <c r="K48" s="2" t="n">
         <v>0.06345300713557595</v>
@@ -2541,7 +2991,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>59</v>
+        <v>200</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>129005</v>
@@ -2558,14 +3008,14 @@
       <c r="G49" s="2" t="n">
         <v>1841000</v>
       </c>
-      <c r="H49" s="2" t="n">
-        <v>0.1831089271368267</v>
-      </c>
-      <c r="I49" s="2" t="n">
-        <v>0.2487550247446494</v>
-      </c>
-      <c r="J49" s="2" t="n">
-        <v>0.06564609760782267</v>
+      <c r="H49" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="I49" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="J49" s="2" t="s">
+        <v>203</v>
       </c>
       <c r="K49" s="2" t="n">
         <v>0.07194924707194646</v>
@@ -2582,7 +3032,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>60</v>
+        <v>204</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>101316</v>
@@ -2599,14 +3049,14 @@
       <c r="G50" s="2" t="n">
         <v>587000</v>
       </c>
-      <c r="H50" s="2" t="n">
-        <v>0.2536508182890161</v>
-      </c>
-      <c r="I50" s="2" t="n">
-        <v>0.2806342599663968</v>
-      </c>
-      <c r="J50" s="2" t="n">
-        <v>0.0269834416773807</v>
+      <c r="H50" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="I50" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="J50" s="2" t="s">
+        <v>207</v>
       </c>
       <c r="K50" s="2" t="n">
         <v>0.2231629955947137</v>
@@ -2623,7 +3073,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>61</v>
+        <v>208</v>
       </c>
       <c r="C51" s="4" t="n">
         <v>19752485</v>
@@ -2640,14 +3090,14 @@
       <c r="G51" s="4" t="n">
         <v>320897000</v>
       </c>
-      <c r="H51" s="2" t="n">
-        <v>0.2337405998399546</v>
-      </c>
-      <c r="I51" s="2" t="n">
-        <v>0.2904479545634399</v>
-      </c>
-      <c r="J51" s="2" t="n">
-        <v>0.05670735472348529</v>
+      <c r="H51" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="I51" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="J51" s="2" t="s">
+        <v>211</v>
       </c>
       <c r="K51" s="2" t="n">
         <v>0.07912926693453728</v>

--- a/consumption_tables/Total energy consumption._              Billion Btu/Natural gas total consumption (including suppl..._                                      Billion Btu.xlsx
+++ b/consumption_tables/Total energy consumption._              Billion Btu/Natural gas total consumption (including suppl..._                                      Billion Btu.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="216">
   <si>
     <t>StateCode</t>
   </si>
@@ -51,6 +51,18 @@
   </si>
   <si>
     <t>ChangeConsumptionPerCapita</t>
+  </si>
+  <si>
+    <t>AK</t>
+  </si>
+  <si>
+    <t>55.955403598461174%</t>
+  </si>
+  <si>
+    <t>54.382464013834685%</t>
+  </si>
+  <si>
+    <t>-1.5729395846264893%</t>
   </si>
   <si>
     <t>AL</t>
@@ -714,8 +726,8 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
@@ -1013,7 +1025,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M51"/>
+  <dimension ref="A1:M52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1067,37 +1079,37 @@
         <v>12</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>252457</v>
+        <v>326826</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>696411</v>
+        <v>337112</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>2.758533136336089</v>
+        <v>1.031472404276282</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>4050000</v>
+        <v>553000</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>4854000</v>
-      </c>
-      <c r="H2" s="2" t="s">
+        <v>738000</v>
+      </c>
+      <c r="H2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" s="3" t="s">
         <v>14</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="K2" s="2" t="n">
-        <v>0.06233506172839506</v>
-      </c>
-      <c r="L2" s="2" t="n">
-        <v>0.1434715698393078</v>
-      </c>
-      <c r="M2" s="2" t="n">
-        <v>0.08113650811091272</v>
+      <c r="K2" s="3" t="n">
+        <v>0.591005424954792</v>
+      </c>
+      <c r="L2" s="3" t="n">
+        <v>0.4567913279132791</v>
+      </c>
+      <c r="M2" s="4" t="n">
+        <v>-0.1342140970415129</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -1108,19 +1120,19 @@
         <v>16</v>
       </c>
       <c r="C3" s="2" t="n">
-        <v>234465</v>
+        <v>252457</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>296742</v>
+        <v>696411</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>1.265613204529461</v>
+        <v>2.758533136336089</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>2357000</v>
+        <v>4050000</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>2978000</v>
+        <v>4854000</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>17</v>
@@ -1132,13 +1144,13 @@
         <v>19</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>0.09947602885023335</v>
+        <v>0.06233506172839506</v>
       </c>
       <c r="L3" s="2" t="n">
-        <v>0.09964472800537273</v>
+        <v>0.1434715698393078</v>
       </c>
       <c r="M3" s="2" t="n">
-        <v>0.0001686991551393818</v>
+        <v>0.08113650811091272</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -1149,19 +1161,19 @@
         <v>20</v>
       </c>
       <c r="C4" s="2" t="n">
-        <v>130781</v>
+        <v>234465</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>365536</v>
+        <v>296742</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>2.795023741980869</v>
+        <v>1.265613204529461</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>3684000</v>
+        <v>2357000</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>6818000</v>
+        <v>2978000</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>21</v>
@@ -1173,13 +1185,13 @@
         <v>23</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>0.03549972855591748</v>
+        <v>0.09947602885023335</v>
       </c>
       <c r="L4" s="2" t="n">
-        <v>0.05361337635670285</v>
+        <v>0.09964472800537273</v>
       </c>
       <c r="M4" s="2" t="n">
-        <v>0.01811364780078537</v>
+        <v>0.0001686991551393818</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -1190,19 +1202,19 @@
         <v>24</v>
       </c>
       <c r="C5" s="2" t="n">
-        <v>2101602</v>
+        <v>130781</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>2381665</v>
+        <v>365536</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>1.133261673713672</v>
+        <v>2.795023741980869</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>29960000</v>
+        <v>3684000</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>38994000</v>
+        <v>6818000</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>25</v>
@@ -1214,13 +1226,13 @@
         <v>27</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>0.07014692923898531</v>
+        <v>0.03549972855591748</v>
       </c>
       <c r="L5" s="2" t="n">
-        <v>0.06107772990716521</v>
-      </c>
-      <c r="M5" s="3" t="n">
-        <v>-0.009069199331820106</v>
+        <v>0.05361337635670285</v>
+      </c>
+      <c r="M5" s="2" t="n">
+        <v>0.01811364780078537</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -1231,19 +1243,19 @@
         <v>28</v>
       </c>
       <c r="C6" s="2" t="n">
-        <v>247756</v>
+        <v>2101602</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>496847</v>
+        <v>2381665</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>2.005388365972973</v>
+        <v>1.133261673713672</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>3308000</v>
+        <v>29960000</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>5449000</v>
+        <v>38994000</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>29</v>
@@ -1255,13 +1267,13 @@
         <v>31</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>0.07489600967351874</v>
+        <v>0.07014692923898531</v>
       </c>
       <c r="L6" s="2" t="n">
-        <v>0.09118131767296751</v>
-      </c>
-      <c r="M6" s="2" t="n">
-        <v>0.01628530799944877</v>
+        <v>0.06107772990716521</v>
+      </c>
+      <c r="M6" s="4" t="n">
+        <v>-0.009069199331820106</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -1272,19 +1284,19 @@
         <v>32</v>
       </c>
       <c r="C7" s="2" t="n">
-        <v>108957</v>
+        <v>247756</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>260931</v>
+        <v>496847</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>2.394807125746854</v>
+        <v>2.005388365972973</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>3292000</v>
+        <v>3308000</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>3585000</v>
+        <v>5449000</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>33</v>
@@ -1296,13 +1308,13 @@
         <v>35</v>
       </c>
       <c r="K7" s="2" t="n">
-        <v>0.03309750911300122</v>
+        <v>0.07489600967351874</v>
       </c>
       <c r="L7" s="2" t="n">
-        <v>0.07278410041841005</v>
+        <v>0.09118131767296751</v>
       </c>
       <c r="M7" s="2" t="n">
-        <v>0.03968659130540883</v>
+        <v>0.01628530799944877</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -1313,19 +1325,19 @@
         <v>36</v>
       </c>
       <c r="C8" s="2" t="n">
-        <v>40145</v>
+        <v>108957</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>107828</v>
+        <v>260931</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>2.685963382737576</v>
+        <v>2.394807125746854</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>670000</v>
+        <v>3292000</v>
       </c>
       <c r="G8" s="2" t="n">
-        <v>944000</v>
+        <v>3585000</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>37</v>
@@ -1337,13 +1349,13 @@
         <v>39</v>
       </c>
       <c r="K8" s="2" t="n">
-        <v>0.05991791044776119</v>
+        <v>0.03309750911300122</v>
       </c>
       <c r="L8" s="2" t="n">
-        <v>0.1142245762711864</v>
+        <v>0.07278410041841005</v>
       </c>
       <c r="M8" s="2" t="n">
-        <v>0.05430666582342525</v>
+        <v>0.03968659130540883</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -1354,19 +1366,19 @@
         <v>40</v>
       </c>
       <c r="C9" s="2" t="n">
-        <v>341993</v>
+        <v>40145</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>1366309</v>
+        <v>107828</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>3.995137327372198</v>
+        <v>2.685963382737576</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>13033000</v>
+        <v>670000</v>
       </c>
       <c r="G9" s="2" t="n">
-        <v>20245000</v>
+        <v>944000</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>41</v>
@@ -1378,13 +1390,13 @@
         <v>43</v>
       </c>
       <c r="K9" s="2" t="n">
-        <v>0.02624054323639991</v>
+        <v>0.05991791044776119</v>
       </c>
       <c r="L9" s="2" t="n">
-        <v>0.06748871326253396</v>
+        <v>0.1142245762711864</v>
       </c>
       <c r="M9" s="2" t="n">
-        <v>0.04124817002613405</v>
+        <v>0.05430666582342525</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -1395,19 +1407,19 @@
         <v>44</v>
       </c>
       <c r="C10" s="2" t="n">
-        <v>319413</v>
+        <v>341993</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>712610</v>
+        <v>1366309</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>2.230998738310589</v>
+        <v>3.995137327372198</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>6513000</v>
+        <v>13033000</v>
       </c>
       <c r="G10" s="2" t="n">
-        <v>10199000</v>
+        <v>20245000</v>
       </c>
       <c r="H10" s="2" t="s">
         <v>45</v>
@@ -1419,13 +1431,13 @@
         <v>47</v>
       </c>
       <c r="K10" s="2" t="n">
-        <v>0.04904237678489175</v>
+        <v>0.02624054323639991</v>
       </c>
       <c r="L10" s="2" t="n">
-        <v>0.06987057554662222</v>
+        <v>0.06748871326253396</v>
       </c>
       <c r="M10" s="2" t="n">
-        <v>0.02082819876173047</v>
+        <v>0.04124817002613405</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -1436,19 +1448,19 @@
         <v>48</v>
       </c>
       <c r="C11" s="2" t="n">
-        <v>2983</v>
+        <v>319413</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>2869</v>
+        <v>712610</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>0.9617834394904459</v>
+        <v>2.230998738310589</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>1113000</v>
+        <v>6513000</v>
       </c>
       <c r="G11" s="2" t="n">
-        <v>1425000</v>
+        <v>10199000</v>
       </c>
       <c r="H11" s="2" t="s">
         <v>49</v>
@@ -1460,13 +1472,13 @@
         <v>51</v>
       </c>
       <c r="K11" s="2" t="n">
-        <v>0.002680143755615454</v>
+        <v>0.04904237678489175</v>
       </c>
       <c r="L11" s="2" t="n">
-        <v>0.002013333333333333</v>
-      </c>
-      <c r="M11" s="3" t="n">
-        <v>-0.0006668104222821206</v>
+        <v>0.06987057554662222</v>
+      </c>
+      <c r="M11" s="2" t="n">
+        <v>0.02082819876173047</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -1477,19 +1489,19 @@
         <v>52</v>
       </c>
       <c r="C12" s="2" t="n">
-        <v>220396</v>
+        <v>2983</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>334778</v>
+        <v>2869</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>1.518984010599103</v>
+        <v>0.9617834394904459</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>2781000</v>
+        <v>1113000</v>
       </c>
       <c r="G12" s="2" t="n">
-        <v>3122000</v>
+        <v>1425000</v>
       </c>
       <c r="H12" s="2" t="s">
         <v>53</v>
@@ -1501,13 +1513,13 @@
         <v>55</v>
       </c>
       <c r="K12" s="2" t="n">
-        <v>0.07925062927004675</v>
+        <v>0.002680143755615454</v>
       </c>
       <c r="L12" s="2" t="n">
-        <v>0.1072319026265215</v>
-      </c>
-      <c r="M12" s="2" t="n">
-        <v>0.02798127335647471</v>
+        <v>0.002013333333333333</v>
+      </c>
+      <c r="M12" s="4" t="n">
+        <v>-0.0006668104222821206</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -1518,19 +1530,19 @@
         <v>56</v>
       </c>
       <c r="C13" s="2" t="n">
-        <v>46786</v>
+        <v>220396</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>107885</v>
+        <v>334778</v>
       </c>
       <c r="E13" s="2" t="n">
-        <v>2.305924849313898</v>
+        <v>1.518984010599103</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>1012000</v>
+        <v>2781000</v>
       </c>
       <c r="G13" s="2" t="n">
-        <v>1653000</v>
+        <v>3122000</v>
       </c>
       <c r="H13" s="2" t="s">
         <v>57</v>
@@ -1542,13 +1554,13 @@
         <v>59</v>
       </c>
       <c r="K13" s="2" t="n">
-        <v>0.04623122529644269</v>
+        <v>0.07925062927004675</v>
       </c>
       <c r="L13" s="2" t="n">
-        <v>0.06526618269812462</v>
+        <v>0.1072319026265215</v>
       </c>
       <c r="M13" s="2" t="n">
-        <v>0.01903495740168193</v>
+        <v>0.02798127335647471</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -1559,19 +1571,19 @@
         <v>60</v>
       </c>
       <c r="C14" s="2" t="n">
-        <v>960188</v>
+        <v>46786</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>1022199</v>
+        <v>107885</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>1.064582144330069</v>
+        <v>2.305924849313898</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>11453000</v>
+        <v>1012000</v>
       </c>
       <c r="G14" s="2" t="n">
-        <v>12839000</v>
+        <v>1653000</v>
       </c>
       <c r="H14" s="2" t="s">
         <v>61</v>
@@ -1583,13 +1595,13 @@
         <v>63</v>
       </c>
       <c r="K14" s="2" t="n">
-        <v>0.08383724788265083</v>
+        <v>0.04623122529644269</v>
       </c>
       <c r="L14" s="2" t="n">
-        <v>0.07961671469740635</v>
-      </c>
-      <c r="M14" s="3" t="n">
-        <v>-0.004220533185244485</v>
+        <v>0.06526618269812462</v>
+      </c>
+      <c r="M14" s="2" t="n">
+        <v>0.01903495740168193</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -1600,19 +1612,19 @@
         <v>64</v>
       </c>
       <c r="C15" s="2" t="n">
-        <v>459072</v>
+        <v>960188</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>738022</v>
+        <v>1022199</v>
       </c>
       <c r="E15" s="2" t="n">
-        <v>1.607638888888889</v>
+        <v>1.064582144330069</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>5558000</v>
+        <v>11453000</v>
       </c>
       <c r="G15" s="2" t="n">
-        <v>6613000</v>
+        <v>12839000</v>
       </c>
       <c r="H15" s="2" t="s">
         <v>65</v>
@@ -1624,13 +1636,13 @@
         <v>67</v>
       </c>
       <c r="K15" s="2" t="n">
-        <v>0.08259661748830514</v>
+        <v>0.08383724788265083</v>
       </c>
       <c r="L15" s="2" t="n">
-        <v>0.1116016936337517</v>
-      </c>
-      <c r="M15" s="2" t="n">
-        <v>0.02900507614544656</v>
+        <v>0.07961671469740635</v>
+      </c>
+      <c r="M15" s="4" t="n">
+        <v>-0.004220533185244485</v>
       </c>
     </row>
     <row r="16" spans="1:13">
@@ -1641,19 +1653,19 @@
         <v>68</v>
       </c>
       <c r="C16" s="2" t="n">
-        <v>352645</v>
+        <v>459072</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>260066</v>
+        <v>738022</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>0.7374725290306116</v>
+        <v>1.607638888888889</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>2481000</v>
+        <v>5558000</v>
       </c>
       <c r="G16" s="2" t="n">
-        <v>2907000</v>
+        <v>6613000</v>
       </c>
       <c r="H16" s="2" t="s">
         <v>69</v>
@@ -1665,13 +1677,13 @@
         <v>71</v>
       </c>
       <c r="K16" s="2" t="n">
-        <v>0.1421382507053607</v>
+        <v>0.08259661748830514</v>
       </c>
       <c r="L16" s="2" t="n">
-        <v>0.08946198830409356</v>
-      </c>
-      <c r="M16" s="3" t="n">
-        <v>-0.05267626240126717</v>
+        <v>0.1116016936337517</v>
+      </c>
+      <c r="M16" s="2" t="n">
+        <v>0.02900507614544656</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -1682,19 +1694,19 @@
         <v>72</v>
       </c>
       <c r="C17" s="2" t="n">
-        <v>191707</v>
+        <v>352645</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>274749</v>
+        <v>260066</v>
       </c>
       <c r="E17" s="2" t="n">
-        <v>1.433171454354823</v>
+        <v>0.7374725290306116</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>3694000</v>
+        <v>2481000</v>
       </c>
       <c r="G17" s="2" t="n">
-        <v>4425000</v>
+        <v>2907000</v>
       </c>
       <c r="H17" s="2" t="s">
         <v>73</v>
@@ -1706,13 +1718,13 @@
         <v>75</v>
       </c>
       <c r="K17" s="2" t="n">
-        <v>0.05189685977260422</v>
+        <v>0.1421382507053607</v>
       </c>
       <c r="L17" s="2" t="n">
-        <v>0.06209016949152543</v>
-      </c>
-      <c r="M17" s="2" t="n">
-        <v>0.0101933097189212</v>
+        <v>0.08946198830409356</v>
+      </c>
+      <c r="M17" s="4" t="n">
+        <v>-0.05267626240126717</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1723,19 +1735,19 @@
         <v>76</v>
       </c>
       <c r="C18" s="2" t="n">
-        <v>1654692</v>
+        <v>191707</v>
       </c>
       <c r="D18" s="2" t="n">
-        <v>1589467</v>
+        <v>274749</v>
       </c>
       <c r="E18" s="2" t="n">
-        <v>0.9605817880306425</v>
+        <v>1.433171454354823</v>
       </c>
       <c r="F18" s="2" t="n">
-        <v>4222000</v>
+        <v>3694000</v>
       </c>
       <c r="G18" s="2" t="n">
-        <v>4669000</v>
+        <v>4425000</v>
       </c>
       <c r="H18" s="2" t="s">
         <v>77</v>
@@ -1746,14 +1758,14 @@
       <c r="J18" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="K18" s="4" t="n">
-        <v>0.3919213642823307</v>
-      </c>
-      <c r="L18" s="4" t="n">
-        <v>0.3404298565003213</v>
-      </c>
-      <c r="M18" s="3" t="n">
-        <v>-0.05149150778200939</v>
+      <c r="K18" s="2" t="n">
+        <v>0.05189685977260422</v>
+      </c>
+      <c r="L18" s="2" t="n">
+        <v>0.06209016949152543</v>
+      </c>
+      <c r="M18" s="2" t="n">
+        <v>0.0101933097189212</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1764,19 +1776,19 @@
         <v>80</v>
       </c>
       <c r="C19" s="2" t="n">
-        <v>273910</v>
+        <v>1654692</v>
       </c>
       <c r="D19" s="2" t="n">
-        <v>457459</v>
+        <v>1589467</v>
       </c>
       <c r="E19" s="2" t="n">
-        <v>1.670106969442518</v>
+        <v>0.9605817880306425</v>
       </c>
       <c r="F19" s="2" t="n">
-        <v>6023000</v>
+        <v>4222000</v>
       </c>
       <c r="G19" s="2" t="n">
-        <v>6784000</v>
+        <v>4669000</v>
       </c>
       <c r="H19" s="2" t="s">
         <v>81</v>
@@ -1788,13 +1800,13 @@
         <v>83</v>
       </c>
       <c r="K19" s="2" t="n">
-        <v>0.04547733687531131</v>
+        <v>0.3919213642823307</v>
       </c>
       <c r="L19" s="2" t="n">
-        <v>0.06743204599056604</v>
-      </c>
-      <c r="M19" s="2" t="n">
-        <v>0.02195470911525473</v>
+        <v>0.3404298565003213</v>
+      </c>
+      <c r="M19" s="4" t="n">
+        <v>-0.05149150778200939</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1805,19 +1817,19 @@
         <v>84</v>
       </c>
       <c r="C20" s="2" t="n">
-        <v>180591</v>
+        <v>273910</v>
       </c>
       <c r="D20" s="2" t="n">
-        <v>226873</v>
+        <v>457459</v>
       </c>
       <c r="E20" s="2" t="n">
-        <v>1.256280767037117</v>
+        <v>1.670106969442518</v>
       </c>
       <c r="F20" s="2" t="n">
-        <v>4800000</v>
+        <v>6023000</v>
       </c>
       <c r="G20" s="2" t="n">
-        <v>5995000</v>
+        <v>6784000</v>
       </c>
       <c r="H20" s="2" t="s">
         <v>85</v>
@@ -1829,13 +1841,13 @@
         <v>87</v>
       </c>
       <c r="K20" s="2" t="n">
-        <v>0.037623125</v>
+        <v>0.04547733687531131</v>
       </c>
       <c r="L20" s="2" t="n">
-        <v>0.03784370308590492</v>
+        <v>0.06743204599056604</v>
       </c>
       <c r="M20" s="2" t="n">
-        <v>0.0002205780859049211</v>
+        <v>0.02195470911525473</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1846,19 +1858,19 @@
         <v>88</v>
       </c>
       <c r="C21" s="2" t="n">
-        <v>4572</v>
+        <v>180591</v>
       </c>
       <c r="D21" s="2" t="n">
-        <v>54203</v>
-      </c>
-      <c r="E21" s="4" t="n">
-        <v>11.85542432195975</v>
+        <v>226873</v>
+      </c>
+      <c r="E21" s="2" t="n">
+        <v>1.256280767037117</v>
       </c>
       <c r="F21" s="2" t="n">
-        <v>1232000</v>
+        <v>4800000</v>
       </c>
       <c r="G21" s="2" t="n">
-        <v>1329000</v>
+        <v>5995000</v>
       </c>
       <c r="H21" s="2" t="s">
         <v>89</v>
@@ -1870,13 +1882,13 @@
         <v>91</v>
       </c>
       <c r="K21" s="2" t="n">
-        <v>0.003711038961038961</v>
+        <v>0.037623125</v>
       </c>
       <c r="L21" s="2" t="n">
-        <v>0.04078480060195636</v>
+        <v>0.03784370308590492</v>
       </c>
       <c r="M21" s="2" t="n">
-        <v>0.03707376164091739</v>
+        <v>0.0002205780859049211</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1887,19 +1899,19 @@
         <v>92</v>
       </c>
       <c r="C22" s="2" t="n">
-        <v>898848</v>
+        <v>4572</v>
       </c>
       <c r="D22" s="2" t="n">
-        <v>872198</v>
-      </c>
-      <c r="E22" s="2" t="n">
-        <v>0.9703509380896437</v>
+        <v>54203</v>
+      </c>
+      <c r="E22" s="3" t="n">
+        <v>11.85542432195975</v>
       </c>
       <c r="F22" s="2" t="n">
-        <v>9311000</v>
+        <v>1232000</v>
       </c>
       <c r="G22" s="2" t="n">
-        <v>9918000</v>
+        <v>1329000</v>
       </c>
       <c r="H22" s="2" t="s">
         <v>93</v>
@@ -1911,13 +1923,13 @@
         <v>95</v>
       </c>
       <c r="K22" s="2" t="n">
-        <v>0.09653614004940393</v>
+        <v>0.003711038961038961</v>
       </c>
       <c r="L22" s="2" t="n">
-        <v>0.0879409155071587</v>
-      </c>
-      <c r="M22" s="3" t="n">
-        <v>-0.008595224542245233</v>
+        <v>0.04078480060195636</v>
+      </c>
+      <c r="M22" s="2" t="n">
+        <v>0.03707376164091739</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1928,19 +1940,19 @@
         <v>96</v>
       </c>
       <c r="C23" s="2" t="n">
-        <v>291828</v>
+        <v>898848</v>
       </c>
       <c r="D23" s="2" t="n">
-        <v>448565</v>
+        <v>872198</v>
       </c>
       <c r="E23" s="2" t="n">
-        <v>1.53708691420974</v>
+        <v>0.9703509380896437</v>
       </c>
       <c r="F23" s="2" t="n">
-        <v>4390000</v>
+        <v>9311000</v>
       </c>
       <c r="G23" s="2" t="n">
-        <v>5482000</v>
+        <v>9918000</v>
       </c>
       <c r="H23" s="2" t="s">
         <v>97</v>
@@ -1952,13 +1964,13 @@
         <v>99</v>
       </c>
       <c r="K23" s="2" t="n">
-        <v>0.0664756264236902</v>
+        <v>0.09653614004940393</v>
       </c>
       <c r="L23" s="2" t="n">
-        <v>0.08182506384531193</v>
-      </c>
-      <c r="M23" s="2" t="n">
-        <v>0.01534943742162173</v>
+        <v>0.0879409155071587</v>
+      </c>
+      <c r="M23" s="4" t="n">
+        <v>-0.008595224542245233</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1969,19 +1981,19 @@
         <v>100</v>
       </c>
       <c r="C24" s="2" t="n">
-        <v>241335</v>
+        <v>291828</v>
       </c>
       <c r="D24" s="2" t="n">
-        <v>270936</v>
+        <v>448565</v>
       </c>
       <c r="E24" s="2" t="n">
-        <v>1.122655230281559</v>
+        <v>1.53708691420974</v>
       </c>
       <c r="F24" s="2" t="n">
-        <v>5129000</v>
+        <v>4390000</v>
       </c>
       <c r="G24" s="2" t="n">
-        <v>6076000</v>
+        <v>5482000</v>
       </c>
       <c r="H24" s="2" t="s">
         <v>101</v>
@@ -1993,13 +2005,13 @@
         <v>103</v>
       </c>
       <c r="K24" s="2" t="n">
-        <v>0.04705303178007409</v>
+        <v>0.0664756264236902</v>
       </c>
       <c r="L24" s="2" t="n">
-        <v>0.04459117840684661</v>
-      </c>
-      <c r="M24" s="3" t="n">
-        <v>-0.002461853373227484</v>
+        <v>0.08182506384531193</v>
+      </c>
+      <c r="M24" s="2" t="n">
+        <v>0.01534943742162173</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -2010,19 +2022,19 @@
         <v>104</v>
       </c>
       <c r="C25" s="2" t="n">
-        <v>261921</v>
+        <v>241335</v>
       </c>
       <c r="D25" s="2" t="n">
-        <v>534052</v>
+        <v>270936</v>
       </c>
       <c r="E25" s="2" t="n">
-        <v>2.038981219528026</v>
+        <v>1.122655230281559</v>
       </c>
       <c r="F25" s="2" t="n">
-        <v>2579000</v>
+        <v>5129000</v>
       </c>
       <c r="G25" s="2" t="n">
-        <v>2989000</v>
+        <v>6076000</v>
       </c>
       <c r="H25" s="2" t="s">
         <v>105</v>
@@ -2034,13 +2046,13 @@
         <v>107</v>
       </c>
       <c r="K25" s="2" t="n">
-        <v>0.101559131446297</v>
+        <v>0.04705303178007409</v>
       </c>
       <c r="L25" s="2" t="n">
-        <v>0.1786724657075945</v>
-      </c>
-      <c r="M25" s="2" t="n">
-        <v>0.0771133342612975</v>
+        <v>0.04459117840684661</v>
+      </c>
+      <c r="M25" s="4" t="n">
+        <v>-0.002461853373227484</v>
       </c>
     </row>
     <row r="26" spans="1:13">
@@ -2051,19 +2063,19 @@
         <v>108</v>
       </c>
       <c r="C26" s="2" t="n">
-        <v>44378</v>
+        <v>261921</v>
       </c>
       <c r="D26" s="2" t="n">
-        <v>74619</v>
+        <v>534052</v>
       </c>
       <c r="E26" s="2" t="n">
-        <v>1.68144125467574</v>
+        <v>2.038981219528026</v>
       </c>
       <c r="F26" s="2" t="n">
-        <v>800000</v>
+        <v>2579000</v>
       </c>
       <c r="G26" s="2" t="n">
-        <v>1032000</v>
+        <v>2989000</v>
       </c>
       <c r="H26" s="2" t="s">
         <v>109</v>
@@ -2075,13 +2087,13 @@
         <v>111</v>
       </c>
       <c r="K26" s="2" t="n">
-        <v>0.0554725</v>
+        <v>0.101559131446297</v>
       </c>
       <c r="L26" s="2" t="n">
-        <v>0.07230523255813953</v>
+        <v>0.1786724657075945</v>
       </c>
       <c r="M26" s="2" t="n">
-        <v>0.01683273255813953</v>
+        <v>0.0771133342612975</v>
       </c>
     </row>
     <row r="27" spans="1:13">
@@ -2092,19 +2104,19 @@
         <v>112</v>
       </c>
       <c r="C27" s="2" t="n">
-        <v>166744</v>
+        <v>44378</v>
       </c>
       <c r="D27" s="2" t="n">
-        <v>516019</v>
+        <v>74619</v>
       </c>
       <c r="E27" s="2" t="n">
-        <v>3.09467806937581</v>
+        <v>1.68144125467574</v>
       </c>
       <c r="F27" s="2" t="n">
-        <v>6664000</v>
+        <v>800000</v>
       </c>
       <c r="G27" s="2" t="n">
-        <v>10035000</v>
+        <v>1032000</v>
       </c>
       <c r="H27" s="2" t="s">
         <v>113</v>
@@ -2116,13 +2128,13 @@
         <v>115</v>
       </c>
       <c r="K27" s="2" t="n">
-        <v>0.02502160864345738</v>
+        <v>0.0554725</v>
       </c>
       <c r="L27" s="2" t="n">
-        <v>0.05142192326856004</v>
+        <v>0.07230523255813953</v>
       </c>
       <c r="M27" s="2" t="n">
-        <v>0.02640031462510265</v>
+        <v>0.01683273255813953</v>
       </c>
     </row>
     <row r="28" spans="1:13">
@@ -2133,19 +2145,19 @@
         <v>116</v>
       </c>
       <c r="C28" s="2" t="n">
-        <v>33529</v>
+        <v>166744</v>
       </c>
       <c r="D28" s="2" t="n">
-        <v>103718</v>
+        <v>516019</v>
       </c>
       <c r="E28" s="2" t="n">
-        <v>3.093381848549017</v>
+        <v>3.09467806937581</v>
       </c>
       <c r="F28" s="2" t="n">
-        <v>638000</v>
+        <v>6664000</v>
       </c>
       <c r="G28" s="2" t="n">
-        <v>757000</v>
+        <v>10035000</v>
       </c>
       <c r="H28" s="2" t="s">
         <v>117</v>
@@ -2157,13 +2169,13 @@
         <v>119</v>
       </c>
       <c r="K28" s="2" t="n">
-        <v>0.05255329153605016</v>
+        <v>0.02502160864345738</v>
       </c>
       <c r="L28" s="2" t="n">
-        <v>0.1370118890356671</v>
+        <v>0.05142192326856004</v>
       </c>
       <c r="M28" s="2" t="n">
-        <v>0.08445859749961696</v>
+        <v>0.02640031462510265</v>
       </c>
     </row>
     <row r="29" spans="1:13">
@@ -2174,19 +2186,19 @@
         <v>120</v>
       </c>
       <c r="C29" s="2" t="n">
-        <v>109175</v>
+        <v>33529</v>
       </c>
       <c r="D29" s="2" t="n">
-        <v>170360</v>
+        <v>103718</v>
       </c>
       <c r="E29" s="2" t="n">
-        <v>1.560430501488436</v>
+        <v>3.093381848549017</v>
       </c>
       <c r="F29" s="2" t="n">
-        <v>1221000</v>
+        <v>638000</v>
       </c>
       <c r="G29" s="2" t="n">
-        <v>2884000</v>
+        <v>757000</v>
       </c>
       <c r="H29" s="2" t="s">
         <v>121</v>
@@ -2198,13 +2210,13 @@
         <v>123</v>
       </c>
       <c r="K29" s="2" t="n">
-        <v>0.08941441441441442</v>
+        <v>0.05255329153605016</v>
       </c>
       <c r="L29" s="2" t="n">
-        <v>0.05907073509015257</v>
-      </c>
-      <c r="M29" s="3" t="n">
-        <v>-0.03034367932426185</v>
+        <v>0.1370118890356671</v>
+      </c>
+      <c r="M29" s="2" t="n">
+        <v>0.08445859749961696</v>
       </c>
     </row>
     <row r="30" spans="1:13">
@@ -2215,19 +2227,19 @@
         <v>124</v>
       </c>
       <c r="C30" s="2" t="n">
-        <v>14474</v>
+        <v>109175</v>
       </c>
       <c r="D30" s="2" t="n">
-        <v>70768</v>
+        <v>170360</v>
       </c>
       <c r="E30" s="2" t="n">
-        <v>4.889318778499378</v>
+        <v>1.560430501488436</v>
       </c>
       <c r="F30" s="2" t="n">
-        <v>1112000</v>
+        <v>1221000</v>
       </c>
       <c r="G30" s="2" t="n">
-        <v>1330000</v>
+        <v>2884000</v>
       </c>
       <c r="H30" s="2" t="s">
         <v>125</v>
@@ -2239,13 +2251,13 @@
         <v>127</v>
       </c>
       <c r="K30" s="2" t="n">
-        <v>0.01301618705035971</v>
+        <v>0.08941441441441442</v>
       </c>
       <c r="L30" s="2" t="n">
-        <v>0.05320902255639098</v>
-      </c>
-      <c r="M30" s="2" t="n">
-        <v>0.04019283550603127</v>
+        <v>0.05907073509015257</v>
+      </c>
+      <c r="M30" s="4" t="n">
+        <v>-0.03034367932426185</v>
       </c>
     </row>
     <row r="31" spans="1:13">
@@ -2256,19 +2268,19 @@
         <v>128</v>
       </c>
       <c r="C31" s="2" t="n">
-        <v>458050</v>
+        <v>14474</v>
       </c>
       <c r="D31" s="2" t="n">
-        <v>779316</v>
+        <v>70768</v>
       </c>
       <c r="E31" s="2" t="n">
-        <v>1.701377578866936</v>
+        <v>4.889318778499378</v>
       </c>
       <c r="F31" s="2" t="n">
-        <v>7763000</v>
+        <v>1112000</v>
       </c>
       <c r="G31" s="2" t="n">
-        <v>8935000</v>
+        <v>1330000</v>
       </c>
       <c r="H31" s="2" t="s">
         <v>129</v>
@@ -2280,13 +2292,13 @@
         <v>131</v>
       </c>
       <c r="K31" s="2" t="n">
-        <v>0.0590042509339173</v>
+        <v>0.01301618705035971</v>
       </c>
       <c r="L31" s="2" t="n">
-        <v>0.0872205931729155</v>
+        <v>0.05320902255639098</v>
       </c>
       <c r="M31" s="2" t="n">
-        <v>0.0282163422389982</v>
+        <v>0.04019283550603127</v>
       </c>
     </row>
     <row r="32" spans="1:13">
@@ -2297,19 +2309,19 @@
         <v>132</v>
       </c>
       <c r="C32" s="2" t="n">
-        <v>251470</v>
+        <v>458050</v>
       </c>
       <c r="D32" s="2" t="n">
-        <v>260040</v>
+        <v>779316</v>
       </c>
       <c r="E32" s="2" t="n">
-        <v>1.034079611882133</v>
+        <v>1.701377578866936</v>
       </c>
       <c r="F32" s="2" t="n">
-        <v>1522000</v>
+        <v>7763000</v>
       </c>
       <c r="G32" s="2" t="n">
-        <v>2080000</v>
+        <v>8935000</v>
       </c>
       <c r="H32" s="2" t="s">
         <v>133</v>
@@ -2321,13 +2333,13 @@
         <v>135</v>
       </c>
       <c r="K32" s="2" t="n">
-        <v>0.1652233902759527</v>
+        <v>0.0590042509339173</v>
       </c>
       <c r="L32" s="2" t="n">
-        <v>0.1250192307692308</v>
-      </c>
-      <c r="M32" s="3" t="n">
-        <v>-0.04020415950672193</v>
+        <v>0.0872205931729155</v>
+      </c>
+      <c r="M32" s="2" t="n">
+        <v>0.0282163422389982</v>
       </c>
     </row>
     <row r="33" spans="1:13">
@@ -2338,37 +2350,37 @@
         <v>136</v>
       </c>
       <c r="C33" s="2" t="n">
-        <v>66888</v>
+        <v>251470</v>
       </c>
       <c r="D33" s="2" t="n">
-        <v>312572</v>
+        <v>260040</v>
       </c>
       <c r="E33" s="2" t="n">
-        <v>4.673065422796316</v>
+        <v>1.034079611882133</v>
       </c>
       <c r="F33" s="2" t="n">
-        <v>1582000</v>
+        <v>1522000</v>
       </c>
       <c r="G33" s="2" t="n">
-        <v>1894000</v>
+        <v>2080000</v>
       </c>
       <c r="H33" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="I33" s="4" t="s">
+      <c r="I33" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="J33" s="4" t="s">
+      <c r="J33" s="2" t="s">
         <v>139</v>
       </c>
       <c r="K33" s="2" t="n">
-        <v>0.04228065739570164</v>
+        <v>0.1652233902759527</v>
       </c>
       <c r="L33" s="2" t="n">
-        <v>0.1650327349524815</v>
+        <v>0.1250192307692308</v>
       </c>
       <c r="M33" s="4" t="n">
-        <v>0.1227520775567799</v>
+        <v>-0.04020415950672193</v>
       </c>
     </row>
     <row r="34" spans="1:13">
@@ -2379,19 +2391,19 @@
         <v>140</v>
       </c>
       <c r="C34" s="2" t="n">
-        <v>895361</v>
+        <v>66888</v>
       </c>
       <c r="D34" s="2" t="n">
-        <v>1397415</v>
+        <v>312572</v>
       </c>
       <c r="E34" s="2" t="n">
-        <v>1.560728019201194</v>
+        <v>4.673065422796316</v>
       </c>
       <c r="F34" s="2" t="n">
-        <v>18021000</v>
+        <v>1582000</v>
       </c>
       <c r="G34" s="2" t="n">
-        <v>19747000</v>
+        <v>1894000</v>
       </c>
       <c r="H34" s="2" t="s">
         <v>141</v>
@@ -2399,17 +2411,17 @@
       <c r="I34" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="J34" s="2" t="s">
+      <c r="J34" s="3" t="s">
         <v>143</v>
       </c>
       <c r="K34" s="2" t="n">
-        <v>0.04968431274624049</v>
+        <v>0.04228065739570164</v>
       </c>
       <c r="L34" s="2" t="n">
-        <v>0.07076593912999443</v>
-      </c>
-      <c r="M34" s="2" t="n">
-        <v>0.02108162638375394</v>
+        <v>0.1650327349524815</v>
+      </c>
+      <c r="M34" s="3" t="n">
+        <v>0.1227520775567799</v>
       </c>
     </row>
     <row r="35" spans="1:13">
@@ -2420,19 +2432,19 @@
         <v>144</v>
       </c>
       <c r="C35" s="2" t="n">
-        <v>776588</v>
+        <v>895361</v>
       </c>
       <c r="D35" s="2" t="n">
-        <v>1034495</v>
+        <v>1397415</v>
       </c>
       <c r="E35" s="2" t="n">
-        <v>1.332102736586195</v>
+        <v>1.560728019201194</v>
       </c>
       <c r="F35" s="2" t="n">
-        <v>10864000</v>
+        <v>18021000</v>
       </c>
       <c r="G35" s="2" t="n">
-        <v>11605000</v>
+        <v>19747000</v>
       </c>
       <c r="H35" s="2" t="s">
         <v>145</v>
@@ -2444,13 +2456,13 @@
         <v>147</v>
       </c>
       <c r="K35" s="2" t="n">
-        <v>0.07148269513991164</v>
+        <v>0.04968431274624049</v>
       </c>
       <c r="L35" s="2" t="n">
-        <v>0.08914218009478674</v>
+        <v>0.07076593912999443</v>
       </c>
       <c r="M35" s="2" t="n">
-        <v>0.0176594849548751</v>
+        <v>0.02108162638375394</v>
       </c>
     </row>
     <row r="36" spans="1:13">
@@ -2461,21 +2473,21 @@
         <v>148</v>
       </c>
       <c r="C36" s="2" t="n">
-        <v>628222</v>
+        <v>776588</v>
       </c>
       <c r="D36" s="2" t="n">
-        <v>712376</v>
+        <v>1034495</v>
       </c>
       <c r="E36" s="2" t="n">
-        <v>1.133955830900542</v>
+        <v>1.332102736586195</v>
       </c>
       <c r="F36" s="2" t="n">
-        <v>3149000</v>
+        <v>10864000</v>
       </c>
       <c r="G36" s="2" t="n">
-        <v>3907000</v>
-      </c>
-      <c r="H36" s="4" t="s">
+        <v>11605000</v>
+      </c>
+      <c r="H36" s="2" t="s">
         <v>149</v>
       </c>
       <c r="I36" s="2" t="s">
@@ -2485,13 +2497,13 @@
         <v>151</v>
       </c>
       <c r="K36" s="2" t="n">
-        <v>0.1994988885360432</v>
+        <v>0.07148269513991164</v>
       </c>
       <c r="L36" s="2" t="n">
-        <v>0.1823332480163808</v>
-      </c>
-      <c r="M36" s="3" t="n">
-        <v>-0.01716564051966235</v>
+        <v>0.08914218009478674</v>
+      </c>
+      <c r="M36" s="2" t="n">
+        <v>0.0176594849548751</v>
       </c>
     </row>
     <row r="37" spans="1:13">
@@ -2502,19 +2514,19 @@
         <v>152</v>
       </c>
       <c r="C37" s="2" t="n">
-        <v>111727</v>
+        <v>628222</v>
       </c>
       <c r="D37" s="2" t="n">
-        <v>244783</v>
+        <v>712376</v>
       </c>
       <c r="E37" s="2" t="n">
-        <v>2.190902825637491</v>
+        <v>1.133955830900542</v>
       </c>
       <c r="F37" s="2" t="n">
-        <v>2860000</v>
+        <v>3149000</v>
       </c>
       <c r="G37" s="2" t="n">
-        <v>4025000</v>
+        <v>3907000</v>
       </c>
       <c r="H37" s="2" t="s">
         <v>153</v>
@@ -2526,13 +2538,13 @@
         <v>155</v>
       </c>
       <c r="K37" s="2" t="n">
-        <v>0.03906538461538461</v>
+        <v>0.1994988885360432</v>
       </c>
       <c r="L37" s="2" t="n">
-        <v>0.06081565217391304</v>
-      </c>
-      <c r="M37" s="2" t="n">
-        <v>0.02175026755852843</v>
+        <v>0.1823332480163808</v>
+      </c>
+      <c r="M37" s="4" t="n">
+        <v>-0.01716564051966235</v>
       </c>
     </row>
     <row r="38" spans="1:13">
@@ -2543,19 +2555,19 @@
         <v>156</v>
       </c>
       <c r="C38" s="2" t="n">
-        <v>680696</v>
+        <v>111727</v>
       </c>
       <c r="D38" s="2" t="n">
-        <v>1344743</v>
+        <v>244783</v>
       </c>
       <c r="E38" s="2" t="n">
-        <v>1.975541210760751</v>
+        <v>2.190902825637491</v>
       </c>
       <c r="F38" s="2" t="n">
-        <v>11903000</v>
+        <v>2860000</v>
       </c>
       <c r="G38" s="2" t="n">
-        <v>12792000</v>
+        <v>4025000</v>
       </c>
       <c r="H38" s="2" t="s">
         <v>157</v>
@@ -2567,13 +2579,13 @@
         <v>159</v>
       </c>
       <c r="K38" s="2" t="n">
-        <v>0.05718692766529446</v>
+        <v>0.03906538461538461</v>
       </c>
       <c r="L38" s="2" t="n">
-        <v>0.1051237492182614</v>
+        <v>0.06081565217391304</v>
       </c>
       <c r="M38" s="2" t="n">
-        <v>0.04793682155296695</v>
+        <v>0.02175026755852843</v>
       </c>
     </row>
     <row r="39" spans="1:13">
@@ -2584,19 +2596,19 @@
         <v>160</v>
       </c>
       <c r="C39" s="2" t="n">
-        <v>40452</v>
+        <v>680696</v>
       </c>
       <c r="D39" s="2" t="n">
-        <v>96520</v>
+        <v>1344743</v>
       </c>
       <c r="E39" s="2" t="n">
-        <v>2.386037773163255</v>
+        <v>1.975541210760751</v>
       </c>
       <c r="F39" s="2" t="n">
-        <v>1006000</v>
+        <v>11903000</v>
       </c>
       <c r="G39" s="2" t="n">
-        <v>1056000</v>
+        <v>12792000</v>
       </c>
       <c r="H39" s="2" t="s">
         <v>161</v>
@@ -2608,13 +2620,13 @@
         <v>163</v>
       </c>
       <c r="K39" s="2" t="n">
-        <v>0.04021073558648111</v>
+        <v>0.05718692766529446</v>
       </c>
       <c r="L39" s="2" t="n">
-        <v>0.09140151515151515</v>
+        <v>0.1051237492182614</v>
       </c>
       <c r="M39" s="2" t="n">
-        <v>0.05119077956503404</v>
+        <v>0.04793682155296695</v>
       </c>
     </row>
     <row r="40" spans="1:13">
@@ -2625,19 +2637,19 @@
         <v>164</v>
       </c>
       <c r="C40" s="2" t="n">
-        <v>134106</v>
+        <v>40452</v>
       </c>
       <c r="D40" s="2" t="n">
-        <v>282227</v>
+        <v>96520</v>
       </c>
       <c r="E40" s="2" t="n">
-        <v>2.104506882615245</v>
+        <v>2.386037773163255</v>
       </c>
       <c r="F40" s="2" t="n">
-        <v>3501000</v>
+        <v>1006000</v>
       </c>
       <c r="G40" s="2" t="n">
-        <v>4895000</v>
+        <v>1056000</v>
       </c>
       <c r="H40" s="2" t="s">
         <v>165</v>
@@ -2649,13 +2661,13 @@
         <v>167</v>
       </c>
       <c r="K40" s="2" t="n">
-        <v>0.03830505569837189</v>
+        <v>0.04021073558648111</v>
       </c>
       <c r="L40" s="2" t="n">
-        <v>0.0576561797752809</v>
+        <v>0.09140151515151515</v>
       </c>
       <c r="M40" s="2" t="n">
-        <v>0.019351124076909</v>
+        <v>0.05119077956503404</v>
       </c>
     </row>
     <row r="41" spans="1:13">
@@ -2666,19 +2678,19 @@
         <v>168</v>
       </c>
       <c r="C41" s="2" t="n">
-        <v>25456</v>
+        <v>134106</v>
       </c>
       <c r="D41" s="2" t="n">
-        <v>83306</v>
+        <v>282227</v>
       </c>
       <c r="E41" s="2" t="n">
-        <v>3.2725487115022</v>
+        <v>2.104506882615245</v>
       </c>
       <c r="F41" s="2" t="n">
-        <v>697000</v>
+        <v>3501000</v>
       </c>
       <c r="G41" s="2" t="n">
-        <v>858000</v>
+        <v>4895000</v>
       </c>
       <c r="H41" s="2" t="s">
         <v>169</v>
@@ -2690,13 +2702,13 @@
         <v>171</v>
       </c>
       <c r="K41" s="2" t="n">
-        <v>0.0365222381635581</v>
+        <v>0.03830505569837189</v>
       </c>
       <c r="L41" s="2" t="n">
-        <v>0.09709324009324009</v>
+        <v>0.0576561797752809</v>
       </c>
       <c r="M41" s="2" t="n">
-        <v>0.06057100192968199</v>
+        <v>0.019351124076909</v>
       </c>
     </row>
     <row r="42" spans="1:13">
@@ -2707,19 +2719,19 @@
         <v>172</v>
       </c>
       <c r="C42" s="2" t="n">
-        <v>227525</v>
+        <v>25456</v>
       </c>
       <c r="D42" s="2" t="n">
-        <v>322385</v>
+        <v>83306</v>
       </c>
       <c r="E42" s="2" t="n">
-        <v>1.416921217448632</v>
+        <v>3.2725487115022</v>
       </c>
       <c r="F42" s="2" t="n">
-        <v>4894000</v>
+        <v>697000</v>
       </c>
       <c r="G42" s="2" t="n">
-        <v>6595000</v>
+        <v>858000</v>
       </c>
       <c r="H42" s="2" t="s">
         <v>173</v>
@@ -2731,13 +2743,13 @@
         <v>175</v>
       </c>
       <c r="K42" s="2" t="n">
-        <v>0.04649060073559461</v>
+        <v>0.0365222381635581</v>
       </c>
       <c r="L42" s="2" t="n">
-        <v>0.04888324488248674</v>
+        <v>0.09709324009324009</v>
       </c>
       <c r="M42" s="2" t="n">
-        <v>0.00239264414689213</v>
+        <v>0.06057100192968199</v>
       </c>
     </row>
     <row r="43" spans="1:13">
@@ -2748,19 +2760,19 @@
         <v>176</v>
       </c>
       <c r="C43" s="2" t="n">
-        <v>3877833</v>
+        <v>227525</v>
       </c>
       <c r="D43" s="2" t="n">
-        <v>4267424</v>
+        <v>322385</v>
       </c>
       <c r="E43" s="2" t="n">
-        <v>1.100466162415968</v>
+        <v>1.416921217448632</v>
       </c>
       <c r="F43" s="2" t="n">
-        <v>17057000</v>
+        <v>4894000</v>
       </c>
       <c r="G43" s="2" t="n">
-        <v>27430000</v>
+        <v>6595000</v>
       </c>
       <c r="H43" s="2" t="s">
         <v>177</v>
@@ -2772,36 +2784,36 @@
         <v>179</v>
       </c>
       <c r="K43" s="2" t="n">
-        <v>0.2273455472826406</v>
+        <v>0.04649060073559461</v>
       </c>
       <c r="L43" s="2" t="n">
-        <v>0.1555750637987605</v>
-      </c>
-      <c r="M43" s="3" t="n">
-        <v>-0.07177048348388007</v>
+        <v>0.04888324488248674</v>
+      </c>
+      <c r="M43" s="2" t="n">
+        <v>0.00239264414689213</v>
       </c>
     </row>
     <row r="44" spans="1:13">
       <c r="A44" s="1" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>180</v>
       </c>
       <c r="C44" s="2" t="n">
-        <v>126913</v>
+        <v>3877833</v>
       </c>
       <c r="D44" s="2" t="n">
-        <v>240939</v>
+        <v>4267424</v>
       </c>
       <c r="E44" s="2" t="n">
-        <v>1.89845799878657</v>
+        <v>1.100466162415968</v>
       </c>
       <c r="F44" s="2" t="n">
-        <v>1731000</v>
+        <v>17057000</v>
       </c>
       <c r="G44" s="2" t="n">
-        <v>2991000</v>
+        <v>27430000</v>
       </c>
       <c r="H44" s="2" t="s">
         <v>181</v>
@@ -2813,13 +2825,13 @@
         <v>183</v>
       </c>
       <c r="K44" s="2" t="n">
-        <v>0.07331773541305604</v>
+        <v>0.2273455472826406</v>
       </c>
       <c r="L44" s="2" t="n">
-        <v>0.08055466399197593</v>
-      </c>
-      <c r="M44" s="2" t="n">
-        <v>0.007236928578919888</v>
+        <v>0.1555750637987605</v>
+      </c>
+      <c r="M44" s="4" t="n">
+        <v>-0.07177048348388007</v>
       </c>
     </row>
     <row r="45" spans="1:13">
@@ -2830,19 +2842,19 @@
         <v>184</v>
       </c>
       <c r="C45" s="2" t="n">
-        <v>192084</v>
+        <v>126913</v>
       </c>
       <c r="D45" s="2" t="n">
-        <v>525289</v>
+        <v>240939</v>
       </c>
       <c r="E45" s="2" t="n">
-        <v>2.734683784177756</v>
+        <v>1.89845799878657</v>
       </c>
       <c r="F45" s="2" t="n">
-        <v>6217000</v>
+        <v>1731000</v>
       </c>
       <c r="G45" s="2" t="n">
-        <v>8368000</v>
+        <v>2991000</v>
       </c>
       <c r="H45" s="2" t="s">
         <v>185</v>
@@ -2854,13 +2866,13 @@
         <v>187</v>
       </c>
       <c r="K45" s="2" t="n">
-        <v>0.0308965739102461</v>
+        <v>0.07331773541305604</v>
       </c>
       <c r="L45" s="2" t="n">
-        <v>0.06277354206500955</v>
+        <v>0.08055466399197593</v>
       </c>
       <c r="M45" s="2" t="n">
-        <v>0.03187696815476346</v>
+        <v>0.007236928578919888</v>
       </c>
     </row>
     <row r="46" spans="1:13">
@@ -2871,19 +2883,19 @@
         <v>188</v>
       </c>
       <c r="C46" s="2" t="n">
-        <v>6678</v>
+        <v>192084</v>
       </c>
       <c r="D46" s="2" t="n">
-        <v>12248</v>
+        <v>525289</v>
       </c>
       <c r="E46" s="2" t="n">
-        <v>1.834082060497155</v>
+        <v>2.734683784177756</v>
       </c>
       <c r="F46" s="2" t="n">
-        <v>565000</v>
+        <v>6217000</v>
       </c>
       <c r="G46" s="2" t="n">
-        <v>626000</v>
+        <v>8368000</v>
       </c>
       <c r="H46" s="2" t="s">
         <v>189</v>
@@ -2895,13 +2907,13 @@
         <v>191</v>
       </c>
       <c r="K46" s="2" t="n">
-        <v>0.01181946902654867</v>
+        <v>0.0308965739102461</v>
       </c>
       <c r="L46" s="2" t="n">
-        <v>0.01956549520766773</v>
+        <v>0.06277354206500955</v>
       </c>
       <c r="M46" s="2" t="n">
-        <v>0.00774602618111906</v>
+        <v>0.03187696815476346</v>
       </c>
     </row>
     <row r="47" spans="1:13">
@@ -2912,19 +2924,19 @@
         <v>192</v>
       </c>
       <c r="C47" s="2" t="n">
-        <v>167616</v>
+        <v>6678</v>
       </c>
       <c r="D47" s="2" t="n">
-        <v>327992</v>
+        <v>12248</v>
       </c>
       <c r="E47" s="2" t="n">
-        <v>1.956806032836961</v>
+        <v>1.834082060497155</v>
       </c>
       <c r="F47" s="2" t="n">
-        <v>4903000</v>
+        <v>565000</v>
       </c>
       <c r="G47" s="2" t="n">
-        <v>7160000</v>
+        <v>626000</v>
       </c>
       <c r="H47" s="2" t="s">
         <v>193</v>
@@ -2936,13 +2948,13 @@
         <v>195</v>
       </c>
       <c r="K47" s="2" t="n">
-        <v>0.0341864164797063</v>
+        <v>0.01181946902654867</v>
       </c>
       <c r="L47" s="2" t="n">
-        <v>0.04580893854748604</v>
+        <v>0.01956549520766773</v>
       </c>
       <c r="M47" s="2" t="n">
-        <v>0.01162252206777974</v>
+        <v>0.00774602618111906</v>
       </c>
     </row>
     <row r="48" spans="1:13">
@@ -2953,19 +2965,19 @@
         <v>196</v>
       </c>
       <c r="C48" s="2" t="n">
-        <v>311237</v>
+        <v>167616</v>
       </c>
       <c r="D48" s="2" t="n">
-        <v>477002</v>
+        <v>327992</v>
       </c>
       <c r="E48" s="2" t="n">
-        <v>1.532600558416898</v>
+        <v>1.956806032836961</v>
       </c>
       <c r="F48" s="2" t="n">
-        <v>4905000</v>
+        <v>4903000</v>
       </c>
       <c r="G48" s="2" t="n">
-        <v>5768000</v>
+        <v>7160000</v>
       </c>
       <c r="H48" s="2" t="s">
         <v>197</v>
@@ -2977,13 +2989,13 @@
         <v>199</v>
       </c>
       <c r="K48" s="2" t="n">
-        <v>0.06345300713557595</v>
+        <v>0.0341864164797063</v>
       </c>
       <c r="L48" s="2" t="n">
-        <v>0.08269798890429958</v>
+        <v>0.04580893854748604</v>
       </c>
       <c r="M48" s="2" t="n">
-        <v>0.01924498176872363</v>
+        <v>0.01162252206777974</v>
       </c>
     </row>
     <row r="49" spans="1:13">
@@ -2994,19 +3006,19 @@
         <v>200</v>
       </c>
       <c r="C49" s="2" t="n">
-        <v>129005</v>
+        <v>311237</v>
       </c>
       <c r="D49" s="2" t="n">
-        <v>192764</v>
+        <v>477002</v>
       </c>
       <c r="E49" s="2" t="n">
-        <v>1.494236657493896</v>
+        <v>1.532600558416898</v>
       </c>
       <c r="F49" s="2" t="n">
-        <v>1793000</v>
+        <v>4905000</v>
       </c>
       <c r="G49" s="2" t="n">
-        <v>1841000</v>
+        <v>5768000</v>
       </c>
       <c r="H49" s="2" t="s">
         <v>201</v>
@@ -3018,36 +3030,36 @@
         <v>203</v>
       </c>
       <c r="K49" s="2" t="n">
-        <v>0.07194924707194646</v>
+        <v>0.06345300713557595</v>
       </c>
       <c r="L49" s="2" t="n">
-        <v>0.1047061379684954</v>
+        <v>0.08269798890429958</v>
       </c>
       <c r="M49" s="2" t="n">
-        <v>0.03275689089654893</v>
+        <v>0.01924498176872363</v>
       </c>
     </row>
     <row r="50" spans="1:13">
       <c r="A50" s="1" t="n">
         <v>49</v>
       </c>
-      <c r="B50" s="4" t="s">
+      <c r="B50" s="2" t="s">
         <v>204</v>
       </c>
       <c r="C50" s="2" t="n">
-        <v>101316</v>
+        <v>129005</v>
       </c>
       <c r="D50" s="2" t="n">
-        <v>146985</v>
+        <v>192764</v>
       </c>
       <c r="E50" s="2" t="n">
-        <v>1.45075802439891</v>
+        <v>1.494236657493896</v>
       </c>
       <c r="F50" s="2" t="n">
-        <v>454000</v>
+        <v>1793000</v>
       </c>
       <c r="G50" s="2" t="n">
-        <v>587000</v>
+        <v>1841000</v>
       </c>
       <c r="H50" s="2" t="s">
         <v>205</v>
@@ -3059,36 +3071,36 @@
         <v>207</v>
       </c>
       <c r="K50" s="2" t="n">
-        <v>0.2231629955947137</v>
+        <v>0.07194924707194646</v>
       </c>
       <c r="L50" s="2" t="n">
-        <v>0.2504003407155025</v>
+        <v>0.1047061379684954</v>
       </c>
       <c r="M50" s="2" t="n">
-        <v>0.02723734512078888</v>
+        <v>0.03275689089654893</v>
       </c>
     </row>
     <row r="51" spans="1:13">
       <c r="A51" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="B51" s="2" t="s">
+      <c r="B51" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="C51" s="4" t="n">
-        <v>19752485</v>
-      </c>
-      <c r="D51" s="4" t="n">
-        <v>28246361</v>
+      <c r="C51" s="2" t="n">
+        <v>101316</v>
+      </c>
+      <c r="D51" s="2" t="n">
+        <v>146985</v>
       </c>
       <c r="E51" s="2" t="n">
-        <v>1.43001556513016</v>
-      </c>
-      <c r="F51" s="4" t="n">
-        <v>249623000</v>
-      </c>
-      <c r="G51" s="4" t="n">
-        <v>320897000</v>
+        <v>1.45075802439891</v>
+      </c>
+      <c r="F51" s="2" t="n">
+        <v>454000</v>
+      </c>
+      <c r="G51" s="2" t="n">
+        <v>587000</v>
       </c>
       <c r="H51" s="2" t="s">
         <v>209</v>
@@ -3100,12 +3112,53 @@
         <v>211</v>
       </c>
       <c r="K51" s="2" t="n">
+        <v>0.2231629955947137</v>
+      </c>
+      <c r="L51" s="2" t="n">
+        <v>0.2504003407155025</v>
+      </c>
+      <c r="M51" s="2" t="n">
+        <v>0.02723734512078888</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13">
+      <c r="A52" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="C52" s="3" t="n">
+        <v>19752485</v>
+      </c>
+      <c r="D52" s="3" t="n">
+        <v>28246361</v>
+      </c>
+      <c r="E52" s="2" t="n">
+        <v>1.43001556513016</v>
+      </c>
+      <c r="F52" s="3" t="n">
+        <v>249623000</v>
+      </c>
+      <c r="G52" s="3" t="n">
+        <v>320897000</v>
+      </c>
+      <c r="H52" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="I52" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="J52" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="K52" s="2" t="n">
         <v>0.07912926693453728</v>
       </c>
-      <c r="L51" s="2" t="n">
+      <c r="L52" s="2" t="n">
         <v>0.08802313826554939</v>
       </c>
-      <c r="M51" s="2" t="n">
+      <c r="M52" s="2" t="n">
         <v>0.008893871331012104</v>
       </c>
     </row>
